--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\io-model\BGDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{215D11C9-115B-413E-BD44-46963ABECEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42EE14D2-F5CA-4E3D-BCAF-EA1C01DC6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="World Bank_Real" sheetId="5" r:id="rId2"/>
-    <sheet name="OECD_PPP" sheetId="4" r:id="rId3"/>
+    <sheet name="IESS_LowGrowth" sheetId="4" r:id="rId3"/>
     <sheet name="Calcs" sheetId="6" r:id="rId4"/>
     <sheet name="BGDP" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="584">
   <si>
     <t>BGDP BAU Gross Domestic Product</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Default COVID Recession Adjustment</t>
-  </si>
-  <si>
-    <t>OECD</t>
   </si>
   <si>
     <r>
@@ -95,18 +92,9 @@
     <t>File: Frac of Pol Impl This Yr - 1 - Default.xlsx</t>
   </si>
   <si>
-    <t>Quarterly National Accounts</t>
-  </si>
-  <si>
     <t>Tab: Exogenous GDP Adjustment</t>
   </si>
   <si>
-    <t>https://data.oecd.org/gdp/gdp-long-term-forecast.htm</t>
-  </si>
-  <si>
-    <t>Real GDP long-term forecast (in PPP)</t>
-  </si>
-  <si>
     <t>Real GDP - Historical</t>
   </si>
   <si>
@@ -1748,42 +1736,6 @@
     <t>ZWE</t>
   </si>
   <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
-    <t>INDICATOR</t>
-  </si>
-  <si>
-    <t>SUBJECT</t>
-  </si>
-  <si>
-    <t>MEASURE</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Growth Rate</t>
-  </si>
-  <si>
-    <t>GDPLTFORECAST</t>
-  </si>
-  <si>
-    <t>TOT</t>
-  </si>
-  <si>
-    <t>MLN_USD</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>World Bank</t>
   </si>
   <si>
@@ -1806,6 +1758,72 @@
   </si>
   <si>
     <t>GDP</t>
+  </si>
+  <si>
+    <t>NITI Aayog</t>
+  </si>
+  <si>
+    <t>India Energy Security Scenarios</t>
+  </si>
+  <si>
+    <t>http://indiaenergy.gov.in/iess/docs/IESS_Version2.2.xlsx</t>
+  </si>
+  <si>
+    <t>Table VII (Low Growth Scenario)</t>
+  </si>
+  <si>
+    <t>IESS</t>
+  </si>
+  <si>
+    <t>Trajectory</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>2012-17</t>
+  </si>
+  <si>
+    <t>2017-22</t>
+  </si>
+  <si>
+    <t>2022-27</t>
+  </si>
+  <si>
+    <t>2027-32</t>
+  </si>
+  <si>
+    <t>2032-37</t>
+  </si>
+  <si>
+    <t>2037-42</t>
+  </si>
+  <si>
+    <t>2042-47</t>
+  </si>
+  <si>
+    <t>High Growth Scenario</t>
+  </si>
+  <si>
+    <t>Medium Growth Scenario</t>
+  </si>
+  <si>
+    <t>Low Growth Scenario</t>
+  </si>
+  <si>
+    <t>GDP Growth Rate at Factor cost at real price (%)</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>GDP Scenarios</t>
+  </si>
+  <si>
+    <t>GDP Growth Rate (IESS Low Growth Scenario)</t>
+  </si>
+  <si>
+    <t>&lt;- assuming 2047 value stays constant until 2050</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1876,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1901,6 +1919,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1917,7 +1941,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1949,6 +1973,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3047,97 +3079,97 @@
                   <c:v>2611189004073.0547</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2812787814401.4009</c:v>
+                  <c:v>2822460696941.9834</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3018250505457.2456</c:v>
+                  <c:v>3050826414080.3457</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3227169776546.8887</c:v>
+                  <c:v>3307045553504.4199</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3439788537575.7744</c:v>
+                  <c:v>3584782878002.6206</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3657187318812.9492</c:v>
+                  <c:v>3885845560489.2153</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3880388017102.0083</c:v>
+                  <c:v>4212192546620.0317</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4109678215434.4551</c:v>
+                  <c:v>4565947301201.4443</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4345526981213.9067</c:v>
+                  <c:v>4949411625087.6543</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4588110214716.7188</c:v>
+                  <c:v>5365080632469.623</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4837517262115.0098</c:v>
+                  <c:v>5815658986009.4492</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5093762083748.1729</c:v>
+                  <c:v>6304078495458.4658</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5356833511344.6934</c:v>
+                  <c:v>6833517194269.2217</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5626516555677.9131</c:v>
+                  <c:v>7407420018328.4746</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5902836345358.7402</c:v>
+                  <c:v>8013201693706.3408</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6185706326282.9365</c:v>
+                  <c:v>8668524428902.0117</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6474956182309.9023</c:v>
+                  <c:v>9377439710957.1523</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6770429557638.4316</c:v>
+                  <c:v>10144330359091.404</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7072154372947.3115</c:v>
+                  <c:v>10973937621176.111</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7380200429933.5098</c:v>
+                  <c:v>11682553238615.908</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7694570520664.9043</c:v>
+                  <c:v>12436926004548.205</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8015208803783.9199</c:v>
+                  <c:v>13240010576740.395</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8342065022068.7432</c:v>
+                  <c:v>14094952402875.982</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8675309491659.9717</c:v>
+                  <c:v>15005100040354.359</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9015101360426.6895</c:v>
+                  <c:v>15846879329561.463</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9361460172844.0469</c:v>
+                  <c:v>16735882054122.701</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9714254701721.748</c:v>
+                  <c:v>17674757427288.199</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>10073334175394.344</c:v>
+                  <c:v>18666303281966.77</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>10438801900373.346</c:v>
+                  <c:v>19713474408221.195</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10810710925948.449</c:v>
+                  <c:v>20819391358493.188</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11188938401132.99</c:v>
+                  <c:v>21987349746797.477</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11573227455682.131</c:v>
+                  <c:v>23220830069596.449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3546,97 +3578,97 @@
                   <c:v>2611189004073.0547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2410127450759.4292</c:v>
+                  <c:v>2418415626504.3853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2802213974036.7944</c:v>
+                  <c:v>2832458205320.9595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3111674630671.8975</c:v>
+                  <c:v>3188691783773.1221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3378236325198.5981</c:v>
+                  <c:v>3520636110077.0586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3624466125621.6172</c:v>
+                  <c:v>3851078540861.2144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3863028921860.7319</c:v>
+                  <c:v>4193349108471.8076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4100485797660.9868</c:v>
+                  <c:v>4555734313000.4092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4340667002237.0645</c:v>
+                  <c:v>4943876269640.627</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4585544574314.1445</c:v>
+                  <c:v>5362080515430.2412</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4836164708541.207</c:v>
+                  <c:v>5814032947295.9238</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5093049984365.6621</c:v>
+                  <c:v>6303197195874.7578</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5356459073181.6104</c:v>
+                  <c:v>6833039537157.0117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5626516555677.9131</c:v>
+                  <c:v>7407420018328.4746</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5902836345358.7402</c:v>
+                  <c:v>8013201693706.3408</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6185706326282.9365</c:v>
+                  <c:v>8668524428902.0117</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6474956182309.9023</c:v>
+                  <c:v>9377439710957.1523</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6770429557638.4316</c:v>
+                  <c:v>10144330359091.404</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7072154372947.3115</c:v>
+                  <c:v>10973937621176.111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7380200429933.5098</c:v>
+                  <c:v>11682553238615.908</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7694570520664.9043</c:v>
+                  <c:v>12436926004548.205</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8015208803783.9199</c:v>
+                  <c:v>13240010576740.395</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8342065022068.7432</c:v>
+                  <c:v>14094952402875.982</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8675309491659.9717</c:v>
+                  <c:v>15005100040354.359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9015101360426.6895</c:v>
+                  <c:v>15846879329561.463</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9361460172844.0469</c:v>
+                  <c:v>16735882054122.701</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9714254701721.748</c:v>
+                  <c:v>17674757427288.199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10073334175394.344</c:v>
+                  <c:v>18666303281966.77</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10438801900373.346</c:v>
+                  <c:v>19713474408221.195</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10810710925948.449</c:v>
+                  <c:v>20819391358493.188</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11188938401132.99</c:v>
+                  <c:v>21987349746797.477</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11573227455682.131</c:v>
+                  <c:v>23220830069596.449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5373,7 +5405,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5401,37 +5433,37 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
+      <c r="B7" s="24" t="s">
+        <v>564</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -5439,17 +5471,17 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -5459,7 +5491,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -5467,22 +5499,22 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5490,7 +5522,7 @@
         <v>0.9686815713640794</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5499,15 +5531,12 @@
         <v>1000000</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5516,7 +5545,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BM269"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BM113" sqref="BM113"/>
     </sheetView>
   </sheetViews>
@@ -5524,15 +5553,15 @@
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7">
         <v>44274</v>
@@ -5540,16 +5569,16 @@
     </row>
     <row r="5" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1960</v>
@@ -5737,16 +5766,16 @@
     </row>
     <row r="6" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AE6">
         <v>981607427.19887698</v>
@@ -5847,16 +5876,16 @@
     </row>
     <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AU7">
         <v>7465114629.4578304</v>
@@ -5915,16 +5944,16 @@
     </row>
     <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y8">
         <v>26637104502.156399</v>
@@ -6049,16 +6078,16 @@
     </row>
     <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y9">
         <v>5323398063.85534</v>
@@ -6183,16 +6212,16 @@
     </row>
     <row r="10" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O10">
         <v>1012346692.5067101</v>
@@ -6347,16 +6376,16 @@
     </row>
     <row r="11" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T11">
         <v>569867002176.43396</v>
@@ -6496,16 +6525,16 @@
     </row>
     <row r="12" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T12">
         <v>56806673982.300903</v>
@@ -6645,16 +6674,16 @@
     </row>
     <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>115573868508.14999</v>
@@ -6839,16 +6868,16 @@
     </row>
     <row r="14" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI14">
         <v>6352022584.9139795</v>
@@ -6943,16 +6972,16 @@
     </row>
     <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AU15">
         <v>623365638.76652002</v>
@@ -7008,16 +7037,16 @@
     </row>
     <row r="16" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V16">
         <v>323050296.77666998</v>
@@ -7151,16 +7180,16 @@
     </row>
     <row r="17" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>199140913998.19699</v>
@@ -7345,16 +7374,16 @@
     </row>
     <row r="18" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>91836704603.827301</v>
@@ -7539,16 +7568,16 @@
     </row>
     <row r="19" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI19">
         <v>22672997489.2598</v>
@@ -7643,16 +7672,16 @@
     </row>
     <row r="20" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>597069961.54607201</v>
@@ -7837,16 +7866,16 @@
     </row>
     <row r="21" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>119193551296.98801</v>
@@ -8031,16 +8060,16 @@
     </row>
     <row r="22" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>1731160070.26564</v>
@@ -8225,16 +8254,16 @@
     </row>
     <row r="23" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>1297842687.8823099</v>
@@ -8419,16 +8448,16 @@
     </row>
     <row r="24" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>17862547694.002499</v>
@@ -8613,16 +8642,16 @@
     </row>
     <row r="25" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y25">
         <v>32356648110.546101</v>
@@ -8747,16 +8776,16 @@
     </row>
     <row r="26" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y26">
         <v>7624228989.3617001</v>
@@ -8881,16 +8910,16 @@
     </row>
     <row r="27" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>1942547494.47697</v>
@@ -9075,16 +9104,16 @@
     </row>
     <row r="28" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AM28">
         <v>2758325394.18226</v>
@@ -9167,16 +9196,16 @@
     </row>
     <row r="29" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI29">
         <v>31609653425.5172</v>
@@ -9271,16 +9300,16 @@
     </row>
     <row r="30" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>99372344.015009403</v>
@@ -9465,16 +9494,16 @@
     </row>
     <row r="31" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>1481304218.12833</v>
@@ -9659,16 +9688,16 @@
     </row>
     <row r="32" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>3676733525.1753001</v>
@@ -9853,16 +9882,16 @@
     </row>
     <row r="33" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>246661854226.25299</v>
@@ -10047,16 +10076,16 @@
     </row>
     <row r="34" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S34">
         <v>2730324074.8417301</v>
@@ -10199,16 +10228,16 @@
     </row>
     <row r="35" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S35">
         <v>7076283755.0421801</v>
@@ -10351,16 +10380,16 @@
     </row>
     <row r="36" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y36">
         <v>158707544.12437901</v>
@@ -10485,16 +10514,16 @@
     </row>
     <row r="37" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>205010517.97542799</v>
@@ -10679,16 +10708,16 @@
     </row>
     <row r="38" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>900551159.41809797</v>
@@ -10873,16 +10902,16 @@
     </row>
     <row r="39" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>293813506386.76202</v>
@@ -11067,16 +11096,16 @@
     </row>
     <row r="40" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI40">
         <v>800966629721.62805</v>
@@ -11171,16 +11200,16 @@
     </row>
     <row r="41" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O41">
         <v>306455538132.70502</v>
@@ -11335,30 +11364,30 @@
     </row>
     <row r="42" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E43">
         <v>29375692257.169498</v>
@@ -11543,16 +11572,16 @@
     </row>
     <row r="44" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E44">
         <v>128048892199.897</v>
@@ -11737,16 +11766,16 @@
     </row>
     <row r="45" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <v>4293692787.7133598</v>
@@ -11931,16 +11960,16 @@
     </row>
     <row r="46" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>4955702656.4464598</v>
@@ -12125,16 +12154,16 @@
     </row>
     <row r="47" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>15841902487.651501</v>
@@ -12319,16 +12348,16 @@
     </row>
     <row r="48" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E48">
         <v>1592525013.0334201</v>
@@ -12513,16 +12542,16 @@
     </row>
     <row r="49" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>37566131248.462402</v>
@@ -12707,16 +12736,16 @@
     </row>
     <row r="50" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y50">
         <v>431970934.08284301</v>
@@ -12841,16 +12870,16 @@
     </row>
     <row r="51" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y51">
         <v>193155976.55583701</v>
@@ -12975,16 +13004,16 @@
     </row>
     <row r="52" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E52">
         <v>3873980068.89815</v>
@@ -13169,16 +13198,16 @@
     </row>
     <row r="53" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K53">
         <v>21757089518.2761</v>
@@ -13345,16 +13374,16 @@
     </row>
     <row r="54" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O54">
         <v>19601031350.326</v>
@@ -13506,30 +13535,30 @@
     </row>
     <row r="55" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AY56">
         <v>4479431264.7102604</v>
@@ -13573,16 +13602,16 @@
     </row>
     <row r="57" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T57">
         <v>3693173452.8235202</v>
@@ -13722,16 +13751,16 @@
     </row>
     <row r="58" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI58">
         <v>145283552883.79401</v>
@@ -13826,16 +13855,16 @@
     </row>
     <row r="59" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O59">
         <v>1538475055638.03</v>
@@ -13990,16 +14019,16 @@
     </row>
     <row r="60" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BC60">
         <v>1128611700.3618</v>
@@ -14007,16 +14036,16 @@
     </row>
     <row r="61" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V61">
         <v>192329648.10249501</v>
@@ -14150,16 +14179,16 @@
     </row>
     <row r="62" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E62">
         <v>94053807786.075195</v>
@@ -14344,16 +14373,16 @@
     </row>
     <row r="63" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E63">
         <v>4360946098.5054102</v>
@@ -14538,16 +14567,16 @@
     </row>
     <row r="64" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E64">
         <v>27434020371.157902</v>
@@ -14732,16 +14761,16 @@
     </row>
     <row r="65" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E65">
         <v>259397358281.91599</v>
@@ -14926,16 +14955,16 @@
     </row>
     <row r="66" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E66">
         <v>1120118806682.04</v>
@@ -15120,16 +15149,16 @@
     </row>
     <row r="67" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>1335946673824.47</v>
@@ -15314,16 +15343,16 @@
     </row>
     <row r="68" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AH68">
         <v>2352619349780.48</v>
@@ -15421,16 +15450,16 @@
     </row>
     <row r="69" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O69">
         <v>8527949022365.04</v>
@@ -15585,16 +15614,16 @@
     </row>
     <row r="70" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E70">
         <v>10168767411.0665</v>
@@ -15779,16 +15808,16 @@
     </row>
     <row r="71" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E71">
         <v>15409781351.133699</v>
@@ -15973,16 +16002,16 @@
     </row>
     <row r="72" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>2846429919274.3901</v>
@@ -16167,16 +16196,16 @@
     </row>
     <row r="73" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AK73">
         <v>885542139.31242299</v>
@@ -16241,16 +16270,16 @@
     </row>
     <row r="74" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E74">
         <v>224627031933.879</v>
@@ -16435,16 +16464,16 @@
     </row>
     <row r="75" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AL75">
         <v>10074197029.7528</v>
@@ -16530,16 +16559,16 @@
     </row>
     <row r="76" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z76">
         <v>8227603581.9633598</v>
@@ -16661,16 +16690,16 @@
     </row>
     <row r="77" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O77">
         <v>5780235042028.46</v>
@@ -16825,16 +16854,16 @@
     </row>
     <row r="78" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E78">
         <v>278640086121.22998</v>
@@ -17019,16 +17048,16 @@
     </row>
     <row r="79" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E79">
         <v>53974754755.818398</v>
@@ -17213,16 +17242,16 @@
     </row>
     <row r="80" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E80">
         <v>697947700.14745605</v>
@@ -17407,16 +17436,16 @@
     </row>
     <row r="81" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E81">
         <v>594143057742.53601</v>
@@ -17601,16 +17630,16 @@
     </row>
     <row r="82" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BC82">
         <v>2320424601.2695398</v>
@@ -17618,16 +17647,16 @@
     </row>
     <row r="83" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AE83">
         <v>204059968.48031899</v>
@@ -17731,16 +17760,16 @@
     </row>
     <row r="84" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E84">
         <v>2187247770.68536</v>
@@ -17925,16 +17954,16 @@
     </row>
     <row r="85" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E85">
         <v>730143163309.04199</v>
@@ -18119,16 +18148,16 @@
     </row>
     <row r="86" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J86">
         <v>7345028481.0733299</v>
@@ -18298,16 +18327,16 @@
     </row>
     <row r="87" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E87">
         <v>7011622290.3684902</v>
@@ -18492,30 +18521,30 @@
     </row>
     <row r="88" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AE89">
         <v>2888984360.4373798</v>
@@ -18622,16 +18651,16 @@
     </row>
     <row r="90" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K90">
         <v>289673615.686113</v>
@@ -18798,16 +18827,16 @@
     </row>
     <row r="91" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O91">
         <v>347357390.64165801</v>
@@ -18962,16 +18991,16 @@
     </row>
     <row r="92" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y92">
         <v>164984420.17245901</v>
@@ -19096,16 +19125,16 @@
     </row>
     <row r="93" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E93">
         <v>52154874899.138802</v>
@@ -19290,16 +19319,16 @@
     </row>
     <row r="94" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V94">
         <v>265671122.37733901</v>
@@ -19433,16 +19462,16 @@
     </row>
     <row r="95" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O95">
         <v>726460342.63614798</v>
@@ -19594,16 +19623,16 @@
     </row>
     <row r="96" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E96">
         <v>6155035023.4236202</v>
@@ -19788,16 +19817,16 @@
     </row>
     <row r="97" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AU97">
         <v>4357462610.1208801</v>
@@ -19853,16 +19882,16 @@
     </row>
     <row r="98" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E98">
         <v>1466748915.84832</v>
@@ -20047,16 +20076,16 @@
     </row>
     <row r="99" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E99">
         <v>9061004685276.3691</v>
@@ -20241,16 +20270,16 @@
     </row>
     <row r="100" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F100">
         <v>10710206076.582899</v>
@@ -20432,16 +20461,16 @@
     </row>
     <row r="101" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E101">
         <v>2234326591.9572301</v>
@@ -20626,16 +20655,16 @@
     </row>
     <row r="102" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E102">
         <v>106384893060.16901</v>
@@ -20820,16 +20849,16 @@
     </row>
     <row r="103" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AN103">
         <v>39820482132.806702</v>
@@ -20909,16 +20938,16 @@
     </row>
     <row r="104" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E104">
         <v>5845645805.10989</v>
@@ -21103,16 +21132,16 @@
     </row>
     <row r="105" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AJ105">
         <v>92011256913.930801</v>
@@ -21204,16 +21233,16 @@
     </row>
     <row r="106" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E106">
         <v>2103110859219.27</v>
@@ -21398,16 +21427,16 @@
     </row>
     <row r="107" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E107">
         <v>2360246183367.4302</v>
@@ -21592,16 +21621,16 @@
     </row>
     <row r="108" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E108">
         <v>248197790755.51801</v>
@@ -21786,16 +21815,16 @@
     </row>
     <row r="109" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E109">
         <v>101376480431.41299</v>
@@ -21980,16 +22009,16 @@
     </row>
     <row r="110" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E110">
         <v>60580597267.239197</v>
@@ -22174,16 +22203,16 @@
     </row>
     <row r="111" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B111" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F111">
         <v>154144756687.08499</v>
@@ -22365,16 +22394,16 @@
     </row>
     <row r="112" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC112">
         <v>1178365959.2841699</v>
@@ -22484,16 +22513,16 @@
     </row>
     <row r="113" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B113" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E113">
         <v>136368084183.964</v>
@@ -22681,30 +22710,30 @@
     </row>
     <row r="114" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O115">
         <v>37691202252.921097</v>
@@ -22859,16 +22888,16 @@
     </row>
     <row r="116" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E116">
         <v>65260083266.4534</v>
@@ -23053,16 +23082,16 @@
     </row>
     <row r="117" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B117" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M117">
         <v>13465091875.3729</v>
@@ -23223,16 +23252,16 @@
     </row>
     <row r="118" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E118">
         <v>2054565119.42785</v>
@@ -23417,16 +23446,16 @@
     </row>
     <row r="119" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E119">
         <v>18580162595.074299</v>
@@ -23611,16 +23640,16 @@
     </row>
     <row r="120" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E120">
         <v>546121684550.67102</v>
@@ -23805,16 +23834,16 @@
     </row>
     <row r="121" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B121" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K121">
         <v>6759236975.6176205</v>
@@ -23981,16 +24010,16 @@
     </row>
     <row r="122" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B122" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U122">
         <v>4610189241.00842</v>
@@ -24127,16 +24156,16 @@
     </row>
     <row r="123" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B123" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E123">
         <v>796213203689.47595</v>
@@ -24321,16 +24350,16 @@
     </row>
     <row r="124" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B124" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D124" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI124">
         <v>96294232757.993698</v>
@@ -24425,16 +24454,16 @@
     </row>
     <row r="125" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B125" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E125">
         <v>4364226422.9649</v>
@@ -24619,16 +24648,16 @@
     </row>
     <row r="126" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B126" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AE126">
         <v>3788752693.6724601</v>
@@ -24735,16 +24764,16 @@
     </row>
     <row r="127" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B127" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D127" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AL127">
         <v>5084948751.5530396</v>
@@ -24830,16 +24859,16 @@
     </row>
     <row r="128" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O128">
         <v>122452273.368609</v>
@@ -24994,16 +25023,16 @@
     </row>
     <row r="129" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B129" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V129">
         <v>188993392.18414101</v>
@@ -25137,16 +25166,16 @@
     </row>
     <row r="130" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B130" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D130" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E130">
         <v>23312576379.016399</v>
@@ -25331,16 +25360,16 @@
     </row>
     <row r="131" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B131" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D131" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AK131">
         <v>44061298325.191902</v>
@@ -25429,16 +25458,16 @@
     </row>
     <row r="132" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B132" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E132">
         <v>742595104672.39099</v>
@@ -25623,16 +25652,16 @@
     </row>
     <row r="133" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B133" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC133">
         <v>1516865496.45085</v>
@@ -25745,16 +25774,16 @@
     </row>
     <row r="134" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B134" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AG134">
         <v>11572724009.806299</v>
@@ -25855,16 +25884,16 @@
     </row>
     <row r="135" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AS135">
         <v>1749841725.7593</v>
@@ -25929,16 +25958,16 @@
     </row>
     <row r="136" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B136" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AR136">
         <v>46322057225.738503</v>
@@ -26006,16 +26035,16 @@
     </row>
     <row r="137" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B137" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V137">
         <v>407178664.77566898</v>
@@ -26149,16 +26178,16 @@
     </row>
     <row r="138" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B138" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E138">
         <v>811786679282.35999</v>
@@ -26343,16 +26372,16 @@
     </row>
     <row r="139" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y139">
         <v>218639710351.07401</v>
@@ -26477,16 +26506,16 @@
     </row>
     <row r="140" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B140" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AA140">
         <v>158897861332.45901</v>
@@ -26605,16 +26634,16 @@
     </row>
     <row r="141" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B141" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D141" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BC141">
         <v>5082366478.0899401</v>
@@ -26622,16 +26651,16 @@
     </row>
     <row r="142" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B142" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F142">
         <v>5924493033.6224003</v>
@@ -26813,16 +26842,16 @@
     </row>
     <row r="143" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B143" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E143">
         <v>507632098590.75098</v>
@@ -27007,16 +27036,16 @@
     </row>
     <row r="144" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B144" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E144">
         <v>2215170248891.6401</v>
@@ -27201,16 +27230,16 @@
     </row>
     <row r="145" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B145" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D145" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E145">
         <v>219198405.39833301</v>
@@ -27395,16 +27424,16 @@
     </row>
     <row r="146" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B146" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D146" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E146">
         <v>1036352477581.73</v>
@@ -27589,16 +27618,16 @@
     </row>
     <row r="147" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B147" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AN147">
         <v>19338575353.548</v>
@@ -27678,16 +27707,16 @@
     </row>
     <row r="148" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B148" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D148" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E148">
         <v>8504063007.6985102</v>
@@ -27872,16 +27901,16 @@
     </row>
     <row r="149" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B149" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AN149">
         <v>12791189407.2845</v>
@@ -27961,16 +27990,16 @@
     </row>
     <row r="150" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B150" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AA150">
         <v>4132227737.1588502</v>
@@ -28089,30 +28118,30 @@
     </row>
     <row r="151" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B151" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D151" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B152" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D152" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K152">
         <v>11947014184.200899</v>
@@ -28279,16 +28308,16 @@
     </row>
     <row r="153" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B153" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O153">
         <v>2014669330.25231</v>
@@ -28440,16 +28469,16 @@
     </row>
     <row r="154" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B154" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AN154">
         <v>4794228776.0827198</v>
@@ -28529,16 +28558,16 @@
     </row>
     <row r="155" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B155" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D155" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E155">
         <v>4175487806.2223301</v>
@@ -28723,16 +28752,16 @@
     </row>
     <row r="156" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B156" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D156" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AN156">
         <v>1168947333.3624001</v>
@@ -28812,16 +28841,16 @@
     </row>
     <row r="157" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B157" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M157">
         <v>449900413746.63702</v>
@@ -28982,16 +29011,16 @@
     </row>
     <row r="158" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B158" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C158" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D158" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E158">
         <v>147593304899.90302</v>
@@ -29176,16 +29205,16 @@
     </row>
     <row r="159" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B159" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D159" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z159">
         <v>72197643.357902497</v>
@@ -29304,16 +29333,16 @@
     </row>
     <row r="160" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B160" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D160" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E160">
         <v>2136121085651.6101</v>
@@ -29498,16 +29527,16 @@
     </row>
     <row r="161" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B161" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI161">
         <v>7693258824.1764698</v>
@@ -29602,16 +29631,16 @@
     </row>
     <row r="162" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B162" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D162" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L162">
         <v>1945443159.77529</v>
@@ -29775,16 +29804,16 @@
     </row>
     <row r="163" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B163" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D163" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O163">
         <v>1127868968.02795</v>
@@ -29939,16 +29968,16 @@
     </row>
     <row r="164" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B164" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C164" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D164" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E164">
         <v>3333228175.4221201</v>
@@ -30133,16 +30162,16 @@
     </row>
     <row r="165" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B165" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C165" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J165">
         <v>218431036867.35901</v>
@@ -30312,16 +30341,16 @@
     </row>
     <row r="166" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B166" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AP166">
         <v>3058958383.1988502</v>
@@ -30395,16 +30424,16 @@
     </row>
     <row r="167" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B167" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z167">
         <v>2497286677.48283</v>
@@ -30526,16 +30555,16 @@
     </row>
     <row r="168" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B168" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C168" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D168" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AU168">
         <v>1456241935.48387</v>
@@ -30591,16 +30620,16 @@
     </row>
     <row r="169" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B169" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C169" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y169">
         <v>2770630718.2009001</v>
@@ -30725,16 +30754,16 @@
     </row>
     <row r="170" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B170" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D170" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F170">
         <v>1210392129.63201</v>
@@ -30916,16 +30945,16 @@
     </row>
     <row r="171" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B171" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D171" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U171">
         <v>2180096679.5310602</v>
@@ -31062,16 +31091,16 @@
     </row>
     <row r="172" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B172" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C172" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E172">
         <v>872749541.98610306</v>
@@ -31256,16 +31285,16 @@
     </row>
     <row r="173" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B173" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D173" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E173">
         <v>11043462325.709999</v>
@@ -31450,16 +31479,16 @@
     </row>
     <row r="174" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B174" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D174" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E174">
         <v>3468359265917.5601</v>
@@ -31644,16 +31673,16 @@
     </row>
     <row r="175" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B175" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y175">
         <v>4459425721.9646902</v>
@@ -31778,30 +31807,30 @@
     </row>
     <row r="176" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B176" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C176" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D176" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B177" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D177" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E177">
         <v>2798910525.5580401</v>
@@ -31986,16 +32015,16 @@
     </row>
     <row r="178" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B178" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D178" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E178">
         <v>61407215816.338501</v>
@@ -32180,16 +32209,16 @@
     </row>
     <row r="179" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B179" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D179" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E179">
         <v>2669697385.4969101</v>
@@ -32374,16 +32403,16 @@
     </row>
     <row r="180" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B180" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C180" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D180" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E180">
         <v>188226201449.40799</v>
@@ -32568,16 +32597,16 @@
     </row>
     <row r="181" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B181" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D181" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E181">
         <v>82968145888.929901</v>
@@ -32762,16 +32791,16 @@
     </row>
     <row r="182" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B182" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C182" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D182" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E182">
         <v>2687564644.5243702</v>
@@ -32956,16 +32985,16 @@
     </row>
     <row r="183" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B183" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C183" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AW183">
         <v>39240729.322645999</v>
@@ -33018,16 +33047,16 @@
     </row>
     <row r="184" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B184" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O184">
         <v>56438153526.277199</v>
@@ -33182,16 +33211,16 @@
     </row>
     <row r="185" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B185" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D185" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E185">
         <v>9096738038240.3594</v>
@@ -33376,16 +33405,16 @@
     </row>
     <row r="186" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B186" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D186" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J186">
         <v>1446595967.4616301</v>
@@ -33555,16 +33584,16 @@
     </row>
     <row r="187" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B187" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AS187">
         <v>169078852255.98199</v>
@@ -33629,16 +33658,16 @@
     </row>
     <row r="188" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B188" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D188" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E188">
         <v>13590748630.244801</v>
@@ -33823,16 +33852,16 @@
     </row>
     <row r="189" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B189" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C189" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D189" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E189">
         <v>2423942593.0218101</v>
@@ -34017,16 +34046,16 @@
     </row>
     <row r="190" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B190" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C190" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E190">
         <v>27007516807.731602</v>
@@ -34211,16 +34240,16 @@
     </row>
     <row r="191" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B191" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C191" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D191" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E191">
         <v>28897257011.723701</v>
@@ -34405,16 +34434,16 @@
     </row>
     <row r="192" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B192" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C192" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AS192">
         <v>178469220.718499</v>
@@ -34479,16 +34508,16 @@
     </row>
     <row r="193" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B193" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C193" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E193">
         <v>2283924562.8204002</v>
@@ -34673,16 +34702,16 @@
     </row>
     <row r="194" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B194" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI194">
         <v>226661816780.59601</v>
@@ -34777,16 +34806,16 @@
     </row>
     <row r="195" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B195" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C195" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D195" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M195">
         <v>193160191737.66599</v>
@@ -34947,16 +34976,16 @@
     </row>
     <row r="196" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B196" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C196" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D196" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E196">
         <v>13751199388.1362</v>
@@ -35141,30 +35170,30 @@
     </row>
     <row r="197" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B197" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C197" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D197" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B198" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C198" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E198">
         <v>39866242631.423302</v>
@@ -35349,16 +35378,16 @@
     </row>
     <row r="199" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B199" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D199" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E199">
         <v>2597665883.9473</v>
@@ -35543,16 +35572,16 @@
     </row>
     <row r="200" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B200" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C200" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D200" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AM200">
         <v>4418346306.3151197</v>
@@ -35635,16 +35664,16 @@
     </row>
     <row r="201" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B201" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C201" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y201">
         <v>3674569775.8773499</v>
@@ -35769,16 +35798,16 @@
     </row>
     <row r="202" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B202" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C202" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D202" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E202">
         <v>8805677836503.0605</v>
@@ -35963,30 +35992,30 @@
     </row>
     <row r="203" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B203" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C203" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="204" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B204" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C204" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D204" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AS204">
         <v>36044298341.093102</v>
@@ -36051,16 +36080,16 @@
     </row>
     <row r="205" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B205" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C205" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D205" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI205">
         <v>124867598832.26401</v>
@@ -36155,16 +36184,16 @@
     </row>
     <row r="206" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B206" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C206" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AH206">
         <v>1459986357545.6299</v>
@@ -36262,16 +36291,16 @@
     </row>
     <row r="207" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B207" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C207" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D207" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E207">
         <v>1031511773.96278</v>
@@ -36456,16 +36485,16 @@
     </row>
     <row r="208" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B208" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C208" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D208" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E208">
         <v>190125396104.55701</v>
@@ -36650,16 +36679,16 @@
     </row>
     <row r="209" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B209" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C209" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D209" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M209">
         <v>76790678103.211304</v>
@@ -36820,16 +36849,16 @@
     </row>
     <row r="210" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B210" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C210" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D210" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E210">
         <v>8261105029.9845695</v>
@@ -37014,16 +37043,16 @@
     </row>
     <row r="211" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B211" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C211" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D211" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E211">
         <v>4366638293.8471804</v>
@@ -37208,16 +37237,16 @@
     </row>
     <row r="212" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B212" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C212" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D212" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E212">
         <v>5768016072.1365004</v>
@@ -37402,16 +37431,16 @@
     </row>
     <row r="213" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B213" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C213" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D213" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y213">
         <v>418276021.783427</v>
@@ -37536,16 +37565,16 @@
     </row>
     <row r="214" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B214" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C214" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D214" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E214">
         <v>863817135.34496701</v>
@@ -37730,16 +37759,16 @@
     </row>
     <row r="215" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B215" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C215" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D215" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J215">
         <v>7547385271.5254202</v>
@@ -37909,16 +37938,16 @@
     </row>
     <row r="216" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B216" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C216" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D216" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AP216">
         <v>1421734394.66731</v>
@@ -37989,30 +38018,30 @@
     </row>
     <row r="217" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B217" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C217" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B218" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C218" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D218" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AN218">
         <v>23364348766.536499</v>
@@ -38092,16 +38121,16 @@
     </row>
     <row r="219" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B219" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C219" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D219" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E219">
         <v>253489825139.591</v>
@@ -38286,16 +38315,16 @@
     </row>
     <row r="220" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B220" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C220" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D220" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BA220">
         <v>13177336584.516399</v>
@@ -38324,16 +38353,16 @@
     </row>
     <row r="221" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B221" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C221" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D221" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E221">
         <v>254643578101.00699</v>
@@ -38518,16 +38547,16 @@
     </row>
     <row r="222" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B222" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C222" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D222" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AP222">
         <v>200413955093.21399</v>
@@ -38601,16 +38630,16 @@
     </row>
     <row r="223" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B223" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C223" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D223" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AT223">
         <v>121709802.096435</v>
@@ -38672,16 +38701,16 @@
     </row>
     <row r="224" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B224" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C224" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D224" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E224">
         <v>960060872.15339804</v>
@@ -38866,16 +38895,16 @@
     </row>
     <row r="225" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B225" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C225" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D225" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AK225">
         <v>40872727875.252098</v>
@@ -38964,16 +38993,16 @@
     </row>
     <row r="226" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B226" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C226" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D226" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI226">
         <v>31023523366.1777</v>
@@ -39068,16 +39097,16 @@
     </row>
     <row r="227" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B227" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C227" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D227" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E227">
         <v>135191373867.022</v>
@@ -39262,16 +39291,16 @@
     </row>
     <row r="228" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B228" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C228" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D228" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O228">
         <v>528635780.45880902</v>
@@ -39426,30 +39455,30 @@
     </row>
     <row r="229" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B229" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C229" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D229" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B230" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C230" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D230" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E230">
         <v>117996015.49628299</v>
@@ -39634,30 +39663,30 @@
     </row>
     <row r="231" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B231" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C231" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D231" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B232" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C232" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D232" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BC232">
         <v>686787800</v>
@@ -39665,16 +39694,16 @@
     </row>
     <row r="233" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B233" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C233" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D233" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E233">
         <v>2091978807.07022</v>
@@ -39859,16 +39888,16 @@
     </row>
     <row r="234" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B234" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C234" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D234" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E234">
         <v>258879776764.44901</v>
@@ -40053,16 +40082,16 @@
     </row>
     <row r="235" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B235" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C235" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D235" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AH235">
         <v>2760226100505.9302</v>
@@ -40160,16 +40189,16 @@
     </row>
     <row r="236" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B236" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C236" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D236" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E236">
         <v>592132789.09555304</v>
@@ -40354,16 +40383,16 @@
     </row>
     <row r="237" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B237" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C237" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D237" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E237">
         <v>15639909036.041901</v>
@@ -40548,16 +40577,16 @@
     </row>
     <row r="238" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B238" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C238" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D238" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AD238">
         <v>6264750611.2526197</v>
@@ -40667,16 +40696,16 @@
     </row>
     <row r="239" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B239" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C239" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D239" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AF239">
         <v>9505676773.0296497</v>
@@ -40777,16 +40806,16 @@
     </row>
     <row r="240" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B240" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C240" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D240" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E240">
         <v>780594856888.67004</v>
@@ -40971,16 +41000,16 @@
     </row>
     <row r="241" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B241" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C241" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D241" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AS241">
         <v>566700965.95867205</v>
@@ -41045,16 +41074,16 @@
     </row>
     <row r="242" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B242" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C242" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D242" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J242">
         <v>217056396399.04001</v>
@@ -41224,16 +41253,16 @@
     </row>
     <row r="243" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B243" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C243" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D243" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z243">
         <v>208003802.01759401</v>
@@ -41355,16 +41384,16 @@
     </row>
     <row r="244" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B244" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C244" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D244" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E244">
         <v>190125396104.55701</v>
@@ -41549,16 +41578,16 @@
     </row>
     <row r="245" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B245" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C245" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D245" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E245">
         <v>254643578101.00699</v>
@@ -41743,16 +41772,16 @@
     </row>
     <row r="246" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B246" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C246" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D246" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E246">
         <v>3397615807.6243701</v>
@@ -41937,16 +41966,16 @@
     </row>
     <row r="247" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B247" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C247" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D247" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J247">
         <v>5059838759.25667</v>
@@ -42116,16 +42145,16 @@
     </row>
     <row r="248" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B248" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C248" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D248" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E248">
         <v>87220338179.834702</v>
@@ -42310,16 +42339,16 @@
     </row>
     <row r="249" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B249" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C249" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D249" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI249">
         <v>21441966.957086299</v>
@@ -42414,16 +42443,16 @@
     </row>
     <row r="250" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B250" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C250" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D250" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AG250">
         <v>11377108482.1353</v>
@@ -42524,16 +42553,16 @@
     </row>
     <row r="251" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B251" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C251" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D251" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AA251">
         <v>5316288670.2975702</v>
@@ -42652,16 +42681,16 @@
     </row>
     <row r="252" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B252" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C252" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D252" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AF252">
         <v>206227757260.06799</v>
@@ -42765,16 +42794,16 @@
     </row>
     <row r="253" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B253" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C253" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D253" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E253">
         <v>1626241099792.96</v>
@@ -42959,16 +42988,16 @@
     </row>
     <row r="254" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B254" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C254" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D254" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E254">
         <v>13898153415.432699</v>
@@ -43153,16 +43182,16 @@
     </row>
     <row r="255" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B255" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C255" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D255" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E255">
         <v>3173064455312.6699</v>
@@ -43347,16 +43376,16 @@
     </row>
     <row r="256" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B256" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C256" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D256" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AF256">
         <v>21538794361.9916</v>
@@ -43460,16 +43489,16 @@
     </row>
     <row r="257" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B257" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C257" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E257">
         <v>141860602.92840499</v>
@@ -43654,16 +43683,16 @@
     </row>
     <row r="258" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B258" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C258" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E258">
         <v>101424598387.439</v>
@@ -43833,30 +43862,30 @@
     </row>
     <row r="259" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B259" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C259" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="260" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B260" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C260" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AU260">
         <v>3980912284.83849</v>
@@ -43909,16 +43938,16 @@
     </row>
     <row r="261" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B261" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C261" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D261" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC261">
         <v>22466506503.8517</v>
@@ -44031,16 +44060,16 @@
     </row>
     <row r="262" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B262" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C262" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D262" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="X262">
         <v>333558830.86807299</v>
@@ -44168,16 +44197,16 @@
     </row>
     <row r="263" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B263" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C263" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D263" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E263">
         <v>11360367512417.1</v>
@@ -44362,16 +44391,16 @@
     </row>
     <row r="264" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B264" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C264" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D264" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AA264">
         <v>358029245.76007903</v>
@@ -44490,16 +44519,16 @@
     </row>
     <row r="265" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B265" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C265" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D265" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AS265">
         <v>3146802261.5512199</v>
@@ -44564,16 +44593,16 @@
     </row>
     <row r="266" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B266" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C266" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D266" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI266">
         <v>11726469033.2757</v>
@@ -44668,16 +44697,16 @@
     </row>
     <row r="267" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B267" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C267" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D267" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E267">
         <v>79070958914.096603</v>
@@ -44862,16 +44891,16 @@
     </row>
     <row r="268" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B268" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C268" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D268" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E268">
         <v>4592975693.6482496</v>
@@ -45056,16 +45085,16 @@
     </row>
     <row r="269" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B269" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C269" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D269" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E269">
         <v>3756656488.4426799</v>
@@ -45262,10 +45291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45273,1261 +45302,541 @@
     <col min="1" max="1" width="16.54296875" customWidth="1"/>
     <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>245</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>567</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F2">
-        <v>2015</v>
-      </c>
-      <c r="G2" s="14">
-        <v>7068982.5221440597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D3" t="s">
-        <v>568</v>
-      </c>
-      <c r="E3" t="s">
-        <v>569</v>
-      </c>
-      <c r="F3">
-        <v>2016</v>
-      </c>
-      <c r="G3" s="14">
-        <v>7626477.7678518398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D4" t="s">
-        <v>568</v>
-      </c>
-      <c r="E4" t="s">
-        <v>569</v>
-      </c>
-      <c r="F4">
-        <v>2017</v>
-      </c>
-      <c r="G4" s="14">
-        <v>8110254.5011760397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" t="s">
-        <v>566</v>
-      </c>
-      <c r="C5" t="s">
-        <v>567</v>
-      </c>
-      <c r="D5" t="s">
-        <v>568</v>
-      </c>
-      <c r="E5" t="s">
-        <v>569</v>
-      </c>
-      <c r="F5">
-        <v>2018</v>
-      </c>
-      <c r="G5" s="14">
-        <v>8692351.28365013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C6" t="s">
-        <v>567</v>
-      </c>
-      <c r="D6" t="s">
-        <v>568</v>
-      </c>
-      <c r="E6" t="s">
-        <v>569</v>
-      </c>
-      <c r="F6">
-        <v>2019</v>
-      </c>
-      <c r="G6" s="14">
-        <v>9352168.7779072691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" t="s">
-        <v>566</v>
-      </c>
-      <c r="C7" t="s">
-        <v>567</v>
-      </c>
-      <c r="D7" t="s">
-        <v>568</v>
-      </c>
-      <c r="E7" t="s">
-        <v>569</v>
-      </c>
-      <c r="F7">
+      <c r="G4" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" s="21">
+        <v>6.8405404334559522E-2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>8.0910149567640269E-2</v>
+      </c>
+      <c r="H5" s="21">
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="I5" s="21">
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="J5" s="21">
+        <v>8.1780386947001335E-2</v>
+      </c>
+      <c r="K5" s="21">
+        <v>6.4572593894866109E-2</v>
+      </c>
+      <c r="L5" s="21">
+        <v>5.6099545284152841E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F6" s="21">
+        <v>6.4465672245523686E-2</v>
+      </c>
+      <c r="G6" s="21">
+        <v>7.1046086269936165E-2</v>
+      </c>
+      <c r="H6" s="21">
+        <v>7.2761204171008981E-2</v>
+      </c>
+      <c r="I6" s="21">
+        <v>7.2761204171008981E-2</v>
+      </c>
+      <c r="J6" s="21">
+        <v>7.1398052370735071E-2</v>
+      </c>
+      <c r="K6" s="21">
+        <v>6.1085079678469302E-2</v>
+      </c>
+      <c r="L6" s="21">
+        <v>5.5730246037310319E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="F7" s="27">
+        <v>5.5657638964670221E-2</v>
+      </c>
+      <c r="G7" s="27">
+        <v>6.2183602660396575E-2</v>
+      </c>
+      <c r="H7" s="27">
+        <v>6.388452863781495E-2</v>
+      </c>
+      <c r="I7" s="27">
+        <v>6.388452863781495E-2</v>
+      </c>
+      <c r="J7" s="27">
+        <v>6.2532656380636584E-2</v>
+      </c>
+      <c r="K7" s="27">
+        <v>5.2305019466748925E-2</v>
+      </c>
+      <c r="L7" s="27">
+        <v>4.6994494960355127E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="28">
         <v>2020</v>
       </c>
-      <c r="G7" s="14">
-        <v>10074210</v>
-      </c>
-      <c r="H7" s="13">
-        <f>(G7-G6)/G6</f>
-        <v>7.720575186778246E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B8" t="s">
-        <v>566</v>
-      </c>
-      <c r="C8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D8" t="s">
-        <v>568</v>
-      </c>
-      <c r="E8" t="s">
-        <v>569</v>
-      </c>
-      <c r="F8">
+      <c r="B10" s="21">
+        <f>G$5</f>
+        <v>8.0910149567640269E-2</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="28">
         <v>2021</v>
       </c>
-      <c r="G8" s="14">
-        <v>10810090</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" ref="H8:H47" si="0">(G8-G7)/G7</f>
-        <v>7.3045926181804832E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" t="s">
-        <v>566</v>
-      </c>
-      <c r="C9" t="s">
-        <v>567</v>
-      </c>
-      <c r="D9" t="s">
-        <v>568</v>
-      </c>
-      <c r="E9" t="s">
-        <v>569</v>
-      </c>
-      <c r="F9">
+      <c r="B11" s="21">
+        <f t="shared" ref="B11:B12" si="0">G$5</f>
+        <v>8.0910149567640269E-2</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="28">
         <v>2022</v>
       </c>
-      <c r="G9" s="14">
-        <v>11558350</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="0"/>
-        <v>6.9218665154499176E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C10" t="s">
-        <v>567</v>
-      </c>
-      <c r="D10" t="s">
-        <v>568</v>
-      </c>
-      <c r="E10" t="s">
-        <v>569</v>
-      </c>
-      <c r="F10">
+      <c r="B12" s="21">
+        <f>H$5</f>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="28">
         <v>2023</v>
       </c>
-      <c r="G10" s="14">
-        <v>12319860</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="0"/>
-        <v>6.5883971328087487E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" t="s">
-        <v>566</v>
-      </c>
-      <c r="C11" t="s">
-        <v>567</v>
-      </c>
-      <c r="D11" t="s">
-        <v>568</v>
-      </c>
-      <c r="E11" t="s">
-        <v>569</v>
-      </c>
-      <c r="F11">
+      <c r="B13" s="21">
+        <f>H$5</f>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="28">
         <v>2024</v>
       </c>
-      <c r="G11" s="14">
-        <v>13098490</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="0"/>
-        <v>6.3201205208500741E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B12" t="s">
-        <v>566</v>
-      </c>
-      <c r="C12" t="s">
-        <v>567</v>
-      </c>
-      <c r="D12" t="s">
-        <v>568</v>
-      </c>
-      <c r="E12" t="s">
-        <v>569</v>
-      </c>
-      <c r="F12">
+      <c r="B14" s="21">
+        <f t="shared" ref="B14:B17" si="1">H$5</f>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="28">
         <v>2025</v>
       </c>
-      <c r="G12" s="14">
-        <v>13897900</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" si="0"/>
-        <v>6.1030698958429559E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" t="s">
-        <v>566</v>
-      </c>
-      <c r="C13" t="s">
-        <v>567</v>
-      </c>
-      <c r="D13" t="s">
-        <v>568</v>
-      </c>
-      <c r="E13" t="s">
-        <v>569</v>
-      </c>
-      <c r="F13">
+      <c r="B15" s="21">
+        <f t="shared" si="1"/>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="28">
         <v>2026</v>
       </c>
-      <c r="G13" s="14">
-        <v>14719120</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="0"/>
-        <v>5.9089502730628365E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" t="s">
-        <v>566</v>
-      </c>
-      <c r="C14" t="s">
-        <v>567</v>
-      </c>
-      <c r="D14" t="s">
-        <v>568</v>
-      </c>
-      <c r="E14" t="s">
-        <v>569</v>
-      </c>
-      <c r="F14">
+      <c r="B16" s="21">
+        <f t="shared" si="1"/>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="28">
         <v>2027</v>
       </c>
-      <c r="G14" s="14">
-        <v>15563830</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="0"/>
-        <v>5.7388621058867648E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" t="s">
-        <v>566</v>
-      </c>
-      <c r="C15" t="s">
-        <v>567</v>
-      </c>
-      <c r="D15" t="s">
-        <v>568</v>
-      </c>
-      <c r="E15" t="s">
-        <v>569</v>
-      </c>
-      <c r="F15">
+      <c r="B17" s="21">
+        <f t="shared" si="1"/>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="28">
         <v>2028</v>
       </c>
-      <c r="G15" s="14">
-        <v>16432660</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="0"/>
-        <v>5.5823662941576722E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" t="s">
-        <v>566</v>
-      </c>
-      <c r="C16" t="s">
-        <v>567</v>
-      </c>
-      <c r="D16" t="s">
-        <v>568</v>
-      </c>
-      <c r="E16" t="s">
-        <v>569</v>
-      </c>
-      <c r="F16">
+      <c r="B18" s="21">
+        <f>I$5</f>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="28">
         <v>2029</v>
       </c>
-      <c r="G16" s="14">
-        <v>17325930</v>
-      </c>
-      <c r="H16" s="13">
-        <f t="shared" si="0"/>
-        <v>5.4359428114498808E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" t="s">
-        <v>566</v>
-      </c>
-      <c r="C17" t="s">
-        <v>567</v>
-      </c>
-      <c r="D17" t="s">
-        <v>568</v>
-      </c>
-      <c r="E17" t="s">
-        <v>569</v>
-      </c>
-      <c r="F17">
+      <c r="B19" s="21">
+        <f t="shared" ref="B19:B22" si="2">I$5</f>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="28">
         <v>2030</v>
       </c>
-      <c r="G17" s="14">
-        <v>18243690</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" si="0"/>
-        <v>5.2970316744902005E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" t="s">
-        <v>566</v>
-      </c>
-      <c r="C18" t="s">
-        <v>567</v>
-      </c>
-      <c r="D18" t="s">
-        <v>568</v>
-      </c>
-      <c r="E18" t="s">
-        <v>569</v>
-      </c>
-      <c r="F18">
+      <c r="B20" s="21">
+        <f t="shared" si="2"/>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="28">
         <v>2031</v>
       </c>
-      <c r="G18" s="14">
-        <v>19185900</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="0"/>
-        <v>5.1645801918361912E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" t="s">
-        <v>566</v>
-      </c>
-      <c r="C19" t="s">
-        <v>567</v>
-      </c>
-      <c r="D19" t="s">
-        <v>568</v>
-      </c>
-      <c r="E19" t="s">
-        <v>569</v>
-      </c>
-      <c r="F19">
+      <c r="B21" s="21">
+        <f t="shared" si="2"/>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="28">
         <v>2032</v>
       </c>
-      <c r="G19" s="14">
-        <v>20151790</v>
-      </c>
-      <c r="H19" s="13">
-        <f t="shared" si="0"/>
-        <v>5.0343742018878444E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" t="s">
-        <v>566</v>
-      </c>
-      <c r="C20" t="s">
-        <v>567</v>
-      </c>
-      <c r="D20" t="s">
-        <v>568</v>
-      </c>
-      <c r="E20" t="s">
-        <v>569</v>
-      </c>
-      <c r="F20">
+      <c r="B22" s="21">
+        <f t="shared" si="2"/>
+        <v>8.3983519429869077E-2</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="28">
         <v>2033</v>
       </c>
-      <c r="G20" s="14">
-        <v>21141450</v>
-      </c>
-      <c r="H20" s="13">
-        <f t="shared" si="0"/>
-        <v>4.9110277548545314E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B21" t="s">
-        <v>566</v>
-      </c>
-      <c r="C21" t="s">
-        <v>567</v>
-      </c>
-      <c r="D21" t="s">
-        <v>568</v>
-      </c>
-      <c r="E21" t="s">
-        <v>569</v>
-      </c>
-      <c r="F21">
+      <c r="B23" s="21">
+        <f>J$5</f>
+        <v>8.1780386947001335E-2</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="28">
         <v>2034</v>
       </c>
-      <c r="G21" s="14">
-        <v>22154570</v>
-      </c>
-      <c r="H21" s="13">
-        <f t="shared" si="0"/>
-        <v>4.7921027176470864E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" t="s">
-        <v>566</v>
-      </c>
-      <c r="C22" t="s">
-        <v>567</v>
-      </c>
-      <c r="D22" t="s">
-        <v>568</v>
-      </c>
-      <c r="E22" t="s">
-        <v>569</v>
-      </c>
-      <c r="F22">
+      <c r="B24" s="21">
+        <f t="shared" ref="B24:B27" si="3">J$5</f>
+        <v>8.1780386947001335E-2</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="28">
         <v>2035</v>
       </c>
-      <c r="G22" s="14">
-        <v>23190540</v>
-      </c>
-      <c r="H22" s="13">
-        <f t="shared" si="0"/>
-        <v>4.6761006871268544E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>245</v>
-      </c>
-      <c r="B23" t="s">
-        <v>566</v>
-      </c>
-      <c r="C23" t="s">
-        <v>567</v>
-      </c>
-      <c r="D23" t="s">
-        <v>568</v>
-      </c>
-      <c r="E23" t="s">
-        <v>569</v>
-      </c>
-      <c r="F23">
+      <c r="B25" s="21">
+        <f t="shared" si="3"/>
+        <v>8.1780386947001335E-2</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="28">
         <v>2036</v>
       </c>
-      <c r="G23" s="14">
-        <v>24248800</v>
-      </c>
-      <c r="H23" s="13">
-        <f t="shared" si="0"/>
-        <v>4.5633262528600026E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" t="s">
-        <v>566</v>
-      </c>
-      <c r="C24" t="s">
-        <v>567</v>
-      </c>
-      <c r="D24" t="s">
-        <v>568</v>
-      </c>
-      <c r="E24" t="s">
-        <v>569</v>
-      </c>
-      <c r="F24">
+      <c r="B26" s="21">
+        <f t="shared" si="3"/>
+        <v>8.1780386947001335E-2</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
         <v>2037</v>
       </c>
-      <c r="G24" s="14">
-        <v>25329450</v>
-      </c>
-      <c r="H24" s="13">
-        <f t="shared" si="0"/>
-        <v>4.4565091880835343E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" t="s">
-        <v>566</v>
-      </c>
-      <c r="C25" t="s">
-        <v>567</v>
-      </c>
-      <c r="D25" t="s">
-        <v>568</v>
-      </c>
-      <c r="E25" t="s">
-        <v>569</v>
-      </c>
-      <c r="F25">
+      <c r="B27" s="21">
+        <f t="shared" si="3"/>
+        <v>8.1780386947001335E-2</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
         <v>2038</v>
       </c>
-      <c r="G25" s="14">
-        <v>26432740</v>
-      </c>
-      <c r="H25" s="13">
-        <f t="shared" si="0"/>
-        <v>4.3557597973899943E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" t="s">
-        <v>566</v>
-      </c>
-      <c r="C26" t="s">
-        <v>567</v>
-      </c>
-      <c r="D26" t="s">
-        <v>568</v>
-      </c>
-      <c r="E26" t="s">
-        <v>569</v>
-      </c>
-      <c r="F26">
+      <c r="B28" s="21">
+        <f>K$5</f>
+        <v>6.4572593894866109E-2</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="28">
         <v>2039</v>
       </c>
-      <c r="G26" s="14">
-        <v>27558680</v>
-      </c>
-      <c r="H26" s="13">
-        <f t="shared" si="0"/>
-        <v>4.2596416413886715E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" t="s">
-        <v>566</v>
-      </c>
-      <c r="C27" t="s">
-        <v>567</v>
-      </c>
-      <c r="D27" t="s">
-        <v>568</v>
-      </c>
-      <c r="E27" t="s">
-        <v>569</v>
-      </c>
-      <c r="F27">
+      <c r="B29" s="21">
+        <f t="shared" ref="B29:B32" si="4">K$5</f>
+        <v>6.4572593894866109E-2</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="28">
         <v>2040</v>
       </c>
-      <c r="G27" s="14">
-        <v>28707070</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" si="0"/>
-        <v>4.1670718626581532E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>245</v>
-      </c>
-      <c r="B28" t="s">
-        <v>566</v>
-      </c>
-      <c r="C28" t="s">
-        <v>567</v>
-      </c>
-      <c r="D28" t="s">
-        <v>568</v>
-      </c>
-      <c r="E28" t="s">
-        <v>569</v>
-      </c>
-      <c r="F28">
+      <c r="B30" s="21">
+        <f t="shared" si="4"/>
+        <v>6.4572593894866109E-2</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="28">
         <v>2041</v>
       </c>
-      <c r="G28" s="14">
-        <v>29877730</v>
-      </c>
-      <c r="H28" s="13">
-        <f t="shared" si="0"/>
-        <v>4.0779501356286101E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>245</v>
-      </c>
-      <c r="B29" t="s">
-        <v>566</v>
-      </c>
-      <c r="C29" t="s">
-        <v>567</v>
-      </c>
-      <c r="D29" t="s">
-        <v>568</v>
-      </c>
-      <c r="E29" t="s">
-        <v>569</v>
-      </c>
-      <c r="F29">
+      <c r="B31" s="21">
+        <f t="shared" si="4"/>
+        <v>6.4572593894866109E-2</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="28">
         <v>2042</v>
       </c>
-      <c r="G29" s="14">
-        <v>31071270</v>
-      </c>
-      <c r="H29" s="13">
-        <f t="shared" si="0"/>
-        <v>3.9947479276370726E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B30" t="s">
-        <v>566</v>
-      </c>
-      <c r="C30" t="s">
-        <v>567</v>
-      </c>
-      <c r="D30" t="s">
-        <v>568</v>
-      </c>
-      <c r="E30" t="s">
-        <v>569</v>
-      </c>
-      <c r="F30">
+      <c r="B32" s="21">
+        <f t="shared" si="4"/>
+        <v>6.4572593894866109E-2</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="28">
         <v>2043</v>
       </c>
-      <c r="G30" s="14">
-        <v>32288260</v>
-      </c>
-      <c r="H30" s="13">
-        <f t="shared" si="0"/>
-        <v>3.9167694143174711E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" t="s">
-        <v>566</v>
-      </c>
-      <c r="C31" t="s">
-        <v>567</v>
-      </c>
-      <c r="D31" t="s">
-        <v>568</v>
-      </c>
-      <c r="E31" t="s">
-        <v>569</v>
-      </c>
-      <c r="F31">
+      <c r="B33" s="21">
+        <f>L$5</f>
+        <v>5.6099545284152841E-2</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="28">
         <v>2044</v>
       </c>
-      <c r="G31" s="14">
-        <v>33528770</v>
-      </c>
-      <c r="H31" s="13">
-        <f t="shared" si="0"/>
-        <v>3.8419846718280887E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" t="s">
-        <v>566</v>
-      </c>
-      <c r="C32" t="s">
-        <v>567</v>
-      </c>
-      <c r="D32" t="s">
-        <v>568</v>
-      </c>
-      <c r="E32" t="s">
-        <v>569</v>
-      </c>
-      <c r="F32">
+      <c r="B34" s="21">
+        <f t="shared" ref="B34:B40" si="5">L$5</f>
+        <v>5.6099545284152841E-2</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="28">
         <v>2045</v>
       </c>
-      <c r="G32" s="14">
-        <v>34792330</v>
-      </c>
-      <c r="H32" s="13">
-        <f>(G32-G31)/G31</f>
-        <v>3.7685844127297245E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>245</v>
-      </c>
-      <c r="B33" t="s">
-        <v>566</v>
-      </c>
-      <c r="C33" t="s">
-        <v>567</v>
-      </c>
-      <c r="D33" t="s">
-        <v>568</v>
-      </c>
-      <c r="E33" t="s">
-        <v>569</v>
-      </c>
-      <c r="F33">
+      <c r="B35" s="21">
+        <f t="shared" si="5"/>
+        <v>5.6099545284152841E-2</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="28">
         <v>2046</v>
       </c>
-      <c r="G33" s="14">
-        <v>36078400</v>
-      </c>
-      <c r="H33" s="13">
-        <f t="shared" si="0"/>
-        <v>3.6964181473330471E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" t="s">
-        <v>566</v>
-      </c>
-      <c r="C34" t="s">
-        <v>567</v>
-      </c>
-      <c r="D34" t="s">
-        <v>568</v>
-      </c>
-      <c r="E34" t="s">
-        <v>569</v>
-      </c>
-      <c r="F34">
+      <c r="B36" s="21">
+        <f t="shared" si="5"/>
+        <v>5.6099545284152841E-2</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="28">
         <v>2047</v>
       </c>
-      <c r="G34" s="14">
-        <v>37387350</v>
-      </c>
-      <c r="H34" s="13">
-        <f t="shared" si="0"/>
-        <v>3.6280710896270343E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" t="s">
-        <v>566</v>
-      </c>
-      <c r="C35" t="s">
-        <v>567</v>
-      </c>
-      <c r="D35" t="s">
-        <v>568</v>
-      </c>
-      <c r="E35" t="s">
-        <v>569</v>
-      </c>
-      <c r="F35">
-        <v>2048</v>
-      </c>
-      <c r="G35" s="14">
-        <v>38719370</v>
-      </c>
-      <c r="H35" s="13">
-        <f t="shared" si="0"/>
-        <v>3.5627558519124781E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" t="s">
-        <v>566</v>
-      </c>
-      <c r="C36" t="s">
-        <v>567</v>
-      </c>
-      <c r="D36" t="s">
-        <v>568</v>
-      </c>
-      <c r="E36" t="s">
-        <v>569</v>
-      </c>
-      <c r="F36">
-        <v>2049</v>
-      </c>
-      <c r="G36" s="14">
-        <v>40074020</v>
-      </c>
-      <c r="H36" s="13">
-        <f t="shared" si="0"/>
-        <v>3.4986364705830698E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B37" t="s">
-        <v>566</v>
+      <c r="B37" s="21">
+        <f t="shared" si="5"/>
+        <v>5.6099545284152841E-2</v>
       </c>
       <c r="C37" t="s">
-        <v>567</v>
-      </c>
-      <c r="D37" t="s">
-        <v>568</v>
-      </c>
-      <c r="E37" t="s">
-        <v>569</v>
-      </c>
-      <c r="F37">
-        <v>2050</v>
-      </c>
-      <c r="G37" s="14">
-        <v>41450380</v>
-      </c>
-      <c r="H37" s="13">
-        <f t="shared" si="0"/>
-        <v>3.4345443756328912E-2</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
       <c r="I37">
         <f>(G37-G6)/G6</f>
-        <v>3.4321676591122574</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>245</v>
-      </c>
-      <c r="B38" t="s">
-        <v>566</v>
-      </c>
-      <c r="C38" t="s">
-        <v>567</v>
-      </c>
-      <c r="D38" t="s">
-        <v>568</v>
-      </c>
-      <c r="E38" t="s">
-        <v>569</v>
-      </c>
-      <c r="F38">
-        <v>2051</v>
-      </c>
-      <c r="G38" s="14">
-        <v>42847680</v>
-      </c>
-      <c r="H38" s="13">
-        <f t="shared" si="0"/>
-        <v>3.3710185527852821E-2</v>
-      </c>
+      <c r="A38" s="28">
+        <v>2048</v>
+      </c>
+      <c r="B38" s="21">
+        <f t="shared" si="5"/>
+        <v>5.6099545284152841E-2</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>245</v>
-      </c>
-      <c r="B39" t="s">
-        <v>566</v>
-      </c>
-      <c r="C39" t="s">
-        <v>567</v>
-      </c>
-      <c r="D39" t="s">
-        <v>568</v>
-      </c>
-      <c r="E39" t="s">
-        <v>569</v>
-      </c>
-      <c r="F39">
-        <v>2052</v>
-      </c>
-      <c r="G39" s="14">
-        <v>44263780</v>
-      </c>
-      <c r="H39" s="13">
-        <f t="shared" si="0"/>
-        <v>3.304963069179008E-2</v>
-      </c>
+      <c r="A39" s="28">
+        <v>2049</v>
+      </c>
+      <c r="B39" s="21">
+        <f t="shared" si="5"/>
+        <v>5.6099545284152841E-2</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>245</v>
-      </c>
-      <c r="B40" t="s">
-        <v>566</v>
-      </c>
-      <c r="C40" t="s">
-        <v>567</v>
-      </c>
-      <c r="D40" t="s">
-        <v>568</v>
-      </c>
-      <c r="E40" t="s">
-        <v>569</v>
-      </c>
-      <c r="F40">
-        <v>2053</v>
-      </c>
-      <c r="G40" s="14">
-        <v>45699030</v>
-      </c>
-      <c r="H40" s="13">
-        <f t="shared" si="0"/>
-        <v>3.2424930722138957E-2</v>
-      </c>
+      <c r="A40" s="28">
+        <v>2050</v>
+      </c>
+      <c r="B40" s="21">
+        <f t="shared" si="5"/>
+        <v>5.6099545284152841E-2</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>245</v>
-      </c>
-      <c r="B41" t="s">
-        <v>566</v>
-      </c>
-      <c r="C41" t="s">
-        <v>567</v>
-      </c>
-      <c r="D41" t="s">
-        <v>568</v>
-      </c>
-      <c r="E41" t="s">
-        <v>569</v>
-      </c>
-      <c r="F41">
-        <v>2054</v>
-      </c>
-      <c r="G41" s="14">
-        <v>47153260</v>
-      </c>
-      <c r="H41" s="13">
-        <f t="shared" si="0"/>
-        <v>3.1821900814962591E-2</v>
-      </c>
+      <c r="G41"/>
+      <c r="H41"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>245</v>
-      </c>
-      <c r="B42" t="s">
-        <v>566</v>
-      </c>
-      <c r="C42" t="s">
-        <v>567</v>
-      </c>
-      <c r="D42" t="s">
-        <v>568</v>
-      </c>
-      <c r="E42" t="s">
-        <v>569</v>
-      </c>
-      <c r="F42">
-        <v>2055</v>
-      </c>
-      <c r="G42" s="14">
-        <v>48625880</v>
-      </c>
-      <c r="H42" s="13">
-        <f t="shared" si="0"/>
-        <v>3.1230502408529124E-2</v>
-      </c>
+      <c r="G42"/>
+      <c r="H42"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>245</v>
-      </c>
-      <c r="B43" t="s">
-        <v>566</v>
-      </c>
-      <c r="C43" t="s">
-        <v>567</v>
-      </c>
-      <c r="D43" t="s">
-        <v>568</v>
-      </c>
-      <c r="E43" t="s">
-        <v>569</v>
-      </c>
-      <c r="F43">
-        <v>2056</v>
-      </c>
-      <c r="G43" s="14">
-        <v>50116830</v>
-      </c>
-      <c r="H43" s="13">
-        <f t="shared" si="0"/>
-        <v>3.0661655891883088E-2</v>
-      </c>
+      <c r="G43"/>
+      <c r="H43"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>245</v>
-      </c>
-      <c r="B44" t="s">
-        <v>566</v>
-      </c>
-      <c r="C44" t="s">
-        <v>567</v>
-      </c>
-      <c r="D44" t="s">
-        <v>568</v>
-      </c>
-      <c r="E44" t="s">
-        <v>569</v>
-      </c>
-      <c r="F44">
-        <v>2057</v>
-      </c>
-      <c r="G44" s="14">
-        <v>51631240</v>
-      </c>
-      <c r="H44" s="13">
-        <f t="shared" si="0"/>
-        <v>3.0217593570862324E-2</v>
-      </c>
+      <c r="G44"/>
+      <c r="H44"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>245</v>
-      </c>
-      <c r="B45" t="s">
-        <v>566</v>
-      </c>
-      <c r="C45" t="s">
-        <v>567</v>
-      </c>
-      <c r="D45" t="s">
-        <v>568</v>
-      </c>
-      <c r="E45" t="s">
-        <v>569</v>
-      </c>
-      <c r="F45">
-        <v>2058</v>
-      </c>
-      <c r="G45" s="14">
-        <v>53172280</v>
-      </c>
-      <c r="H45" s="13">
-        <f t="shared" si="0"/>
-        <v>2.9847046090700127E-2</v>
-      </c>
+      <c r="G45"/>
+      <c r="H45"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>245</v>
-      </c>
-      <c r="B46" t="s">
-        <v>566</v>
-      </c>
-      <c r="C46" t="s">
-        <v>567</v>
-      </c>
-      <c r="D46" t="s">
-        <v>568</v>
-      </c>
-      <c r="E46" t="s">
-        <v>569</v>
-      </c>
-      <c r="F46">
-        <v>2059</v>
-      </c>
-      <c r="G46" s="14">
-        <v>54743510</v>
-      </c>
-      <c r="H46" s="13">
-        <f t="shared" si="0"/>
-        <v>2.9549795494945862E-2</v>
-      </c>
+      <c r="G46"/>
+      <c r="H46"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" t="s">
-        <v>566</v>
-      </c>
-      <c r="C47" t="s">
-        <v>567</v>
-      </c>
-      <c r="D47" t="s">
-        <v>568</v>
-      </c>
-      <c r="E47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F47">
-        <v>2060</v>
-      </c>
-      <c r="G47" s="14">
-        <v>56348490</v>
-      </c>
-      <c r="H47" s="13">
-        <f t="shared" si="0"/>
-        <v>2.9318178538424007E-2</v>
-      </c>
+      <c r="G47"/>
+      <c r="H47"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H48" s="13"/>
@@ -46677,7 +45986,7 @@
   <dimension ref="A3:G95"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46691,34 +46000,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -47508,7 +46817,7 @@
       <c r="A64" s="15">
         <v>2019</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="23">
         <f>INDEX('World Bank_Real'!$113:$113,MATCH(Calcs!A64,'World Bank_Real'!$5:$5,0))</f>
         <v>2695611314661.46</v>
       </c>
@@ -47526,8 +46835,8 @@
         <v>2020</v>
       </c>
       <c r="C65" s="17">
-        <f>C64*(1+OECD_PPP!H7)</f>
-        <v>2812787814401.4009</v>
+        <f>C64*(1+IESS_LowGrowth!B10)</f>
+        <v>2822460696941.9834</v>
       </c>
       <c r="D65">
         <v>2020</v>
@@ -47540,7 +46849,7 @@
       </c>
       <c r="G65" s="18">
         <f>C65*(1+E65)</f>
-        <v>2410127450759.4292</v>
+        <v>2418415626504.3853</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -47548,8 +46857,8 @@
         <v>2021</v>
       </c>
       <c r="C66" s="17">
-        <f>C65*(1+OECD_PPP!H8)</f>
-        <v>3018250505457.2456</v>
+        <f>C65*(1+IESS_LowGrowth!B11)</f>
+        <v>3050826414080.3457</v>
       </c>
       <c r="D66">
         <v>2021</v>
@@ -47563,7 +46872,7 @@
       </c>
       <c r="G66" s="18">
         <f t="shared" ref="G66:G74" si="1">C66*(1+E66)</f>
-        <v>2802213974036.7944</v>
+        <v>2832458205320.9595</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -47571,8 +46880,8 @@
         <v>2022</v>
       </c>
       <c r="C67" s="17">
-        <f>C66*(1+OECD_PPP!H9)</f>
-        <v>3227169776546.8887</v>
+        <f>C66*(1+IESS_LowGrowth!B12)</f>
+        <v>3307045553504.4199</v>
       </c>
       <c r="D67">
         <v>2022</v>
@@ -47586,7 +46895,7 @@
       </c>
       <c r="G67" s="18">
         <f t="shared" si="1"/>
-        <v>3111674630671.8975</v>
+        <v>3188691783773.1221</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -47594,8 +46903,8 @@
         <v>2023</v>
       </c>
       <c r="C68" s="17">
-        <f>C67*(1+OECD_PPP!H10)</f>
-        <v>3439788537575.7744</v>
+        <f>C67*(1+IESS_LowGrowth!B13)</f>
+        <v>3584782878002.6206</v>
       </c>
       <c r="D68">
         <v>2023</v>
@@ -47609,7 +46918,7 @@
       </c>
       <c r="G68" s="18">
         <f t="shared" si="1"/>
-        <v>3378236325198.5981</v>
+        <v>3520636110077.0586</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -47617,8 +46926,8 @@
         <v>2024</v>
       </c>
       <c r="C69" s="17">
-        <f>C68*(1+OECD_PPP!H11)</f>
-        <v>3657187318812.9492</v>
+        <f>C68*(1+IESS_LowGrowth!B14)</f>
+        <v>3885845560489.2153</v>
       </c>
       <c r="D69">
         <v>2024</v>
@@ -47632,7 +46941,7 @@
       </c>
       <c r="G69" s="18">
         <f t="shared" si="1"/>
-        <v>3624466125621.6172</v>
+        <v>3851078540861.2144</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -47640,8 +46949,8 @@
         <v>2025</v>
       </c>
       <c r="C70" s="17">
-        <f>C69*(1+OECD_PPP!H12)</f>
-        <v>3880388017102.0083</v>
+        <f>C69*(1+IESS_LowGrowth!B15)</f>
+        <v>4212192546620.0317</v>
       </c>
       <c r="D70">
         <v>2025</v>
@@ -47655,7 +46964,7 @@
       </c>
       <c r="G70" s="18">
         <f t="shared" si="1"/>
-        <v>3863028921860.7319</v>
+        <v>4193349108471.8076</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -47663,8 +46972,8 @@
         <v>2026</v>
       </c>
       <c r="C71" s="17">
-        <f>C70*(1+OECD_PPP!H13)</f>
-        <v>4109678215434.4551</v>
+        <f>C70*(1+IESS_LowGrowth!B16)</f>
+        <v>4565947301201.4443</v>
       </c>
       <c r="D71">
         <v>2026</v>
@@ -47678,7 +46987,7 @@
       </c>
       <c r="G71" s="18">
         <f t="shared" si="1"/>
-        <v>4100485797660.9868</v>
+        <v>4555734313000.4092</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -47686,8 +46995,8 @@
         <v>2027</v>
       </c>
       <c r="C72" s="17">
-        <f>C71*(1+OECD_PPP!H14)</f>
-        <v>4345526981213.9067</v>
+        <f>C71*(1+IESS_LowGrowth!B17)</f>
+        <v>4949411625087.6543</v>
       </c>
       <c r="D72">
         <v>2027</v>
@@ -47701,7 +47010,7 @@
       </c>
       <c r="G72" s="18">
         <f t="shared" si="1"/>
-        <v>4340667002237.0645</v>
+        <v>4943876269640.627</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -47709,8 +47018,8 @@
         <v>2028</v>
       </c>
       <c r="C73" s="17">
-        <f>C72*(1+OECD_PPP!H15)</f>
-        <v>4588110214716.7188</v>
+        <f>C72*(1+IESS_LowGrowth!B18)</f>
+        <v>5365080632469.623</v>
       </c>
       <c r="D73">
         <v>2028</v>
@@ -47724,7 +47033,7 @@
       </c>
       <c r="G73" s="18">
         <f t="shared" si="1"/>
-        <v>4585544574314.1445</v>
+        <v>5362080515430.2412</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -47732,8 +47041,8 @@
         <v>2029</v>
       </c>
       <c r="C74" s="17">
-        <f>C73*(1+OECD_PPP!H16)</f>
-        <v>4837517262115.0098</v>
+        <f>C73*(1+IESS_LowGrowth!B19)</f>
+        <v>5815658986009.4492</v>
       </c>
       <c r="D74">
         <v>2029</v>
@@ -47747,7 +47056,7 @@
       </c>
       <c r="G74" s="18">
         <f t="shared" si="1"/>
-        <v>4836164708541.207</v>
+        <v>5814032947295.9238</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -47755,8 +47064,8 @@
         <v>2030</v>
       </c>
       <c r="C75" s="17">
-        <f>C74*(1+OECD_PPP!H17)</f>
-        <v>5093762083748.1729</v>
+        <f>C74*(1+IESS_LowGrowth!B20)</f>
+        <v>6304078495458.4658</v>
       </c>
       <c r="D75">
         <v>2030</v>
@@ -47770,7 +47079,7 @@
       </c>
       <c r="G75" s="18">
         <f>C75*(1+E75)</f>
-        <v>5093049984365.6621</v>
+        <v>6303197195874.7578</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -47778,8 +47087,8 @@
         <v>2031</v>
       </c>
       <c r="C76" s="17">
-        <f>C75*(1+OECD_PPP!H18)</f>
-        <v>5356833511344.6934</v>
+        <f>C75*(1+IESS_LowGrowth!B21)</f>
+        <v>6833517194269.2217</v>
       </c>
       <c r="D76">
         <v>2031</v>
@@ -47793,7 +47102,7 @@
       </c>
       <c r="G76" s="18">
         <f>C76*(1+E76)</f>
-        <v>5356459073181.6104</v>
+        <v>6833039537157.0117</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -47801,12 +47110,12 @@
         <v>2032</v>
       </c>
       <c r="C77" s="17">
-        <f>C76*(1+OECD_PPP!H19)</f>
-        <v>5626516555677.9131</v>
+        <f>C76*(1+IESS_LowGrowth!B22)</f>
+        <v>7407420018328.4746</v>
       </c>
       <c r="G77" s="18">
         <f t="shared" si="0"/>
-        <v>5626516555677.9131</v>
+        <v>7407420018328.4746</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -47814,12 +47123,12 @@
         <v>2033</v>
       </c>
       <c r="C78" s="17">
-        <f>C77*(1+OECD_PPP!H20)</f>
-        <v>5902836345358.7402</v>
+        <f>C77*(1+IESS_LowGrowth!B23)</f>
+        <v>8013201693706.3408</v>
       </c>
       <c r="G78" s="18">
         <f t="shared" si="0"/>
-        <v>5902836345358.7402</v>
+        <v>8013201693706.3408</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -47827,12 +47136,12 @@
         <v>2034</v>
       </c>
       <c r="C79" s="17">
-        <f>C78*(1+OECD_PPP!H21)</f>
-        <v>6185706326282.9365</v>
+        <f>C78*(1+IESS_LowGrowth!B24)</f>
+        <v>8668524428902.0117</v>
       </c>
       <c r="G79" s="18">
         <f t="shared" si="0"/>
-        <v>6185706326282.9365</v>
+        <v>8668524428902.0117</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -47840,12 +47149,12 @@
         <v>2035</v>
       </c>
       <c r="C80" s="17">
-        <f>C79*(1+OECD_PPP!H22)</f>
-        <v>6474956182309.9023</v>
+        <f>C79*(1+IESS_LowGrowth!B25)</f>
+        <v>9377439710957.1523</v>
       </c>
       <c r="G80" s="18">
         <f t="shared" si="0"/>
-        <v>6474956182309.9023</v>
+        <v>9377439710957.1523</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -47853,12 +47162,12 @@
         <v>2036</v>
       </c>
       <c r="C81" s="17">
-        <f>C80*(1+OECD_PPP!H23)</f>
-        <v>6770429557638.4316</v>
+        <f>C80*(1+IESS_LowGrowth!B26)</f>
+        <v>10144330359091.404</v>
       </c>
       <c r="G81" s="18">
         <f t="shared" si="0"/>
-        <v>6770429557638.4316</v>
+        <v>10144330359091.404</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -47866,12 +47175,12 @@
         <v>2037</v>
       </c>
       <c r="C82" s="17">
-        <f>C81*(1+OECD_PPP!H24)</f>
-        <v>7072154372947.3115</v>
+        <f>C81*(1+IESS_LowGrowth!B27)</f>
+        <v>10973937621176.111</v>
       </c>
       <c r="G82" s="18">
         <f t="shared" si="0"/>
-        <v>7072154372947.3115</v>
+        <v>10973937621176.111</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -47879,12 +47188,12 @@
         <v>2038</v>
       </c>
       <c r="C83" s="17">
-        <f>C82*(1+OECD_PPP!H25)</f>
-        <v>7380200429933.5098</v>
+        <f>C82*(1+IESS_LowGrowth!B28)</f>
+        <v>11682553238615.908</v>
       </c>
       <c r="G83" s="18">
         <f t="shared" si="0"/>
-        <v>7380200429933.5098</v>
+        <v>11682553238615.908</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -47892,12 +47201,12 @@
         <v>2039</v>
       </c>
       <c r="C84" s="17">
-        <f>C83*(1+OECD_PPP!H26)</f>
-        <v>7694570520664.9043</v>
+        <f>C83*(1+IESS_LowGrowth!B29)</f>
+        <v>12436926004548.205</v>
       </c>
       <c r="G84" s="18">
         <f t="shared" si="0"/>
-        <v>7694570520664.9043</v>
+        <v>12436926004548.205</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -47905,12 +47214,12 @@
         <v>2040</v>
       </c>
       <c r="C85" s="17">
-        <f>C84*(1+OECD_PPP!H27)</f>
-        <v>8015208803783.9199</v>
+        <f>C84*(1+IESS_LowGrowth!B30)</f>
+        <v>13240010576740.395</v>
       </c>
       <c r="G85" s="18">
         <f t="shared" si="0"/>
-        <v>8015208803783.9199</v>
+        <v>13240010576740.395</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -47918,12 +47227,12 @@
         <v>2041</v>
       </c>
       <c r="C86" s="17">
-        <f>C85*(1+OECD_PPP!H28)</f>
-        <v>8342065022068.7432</v>
+        <f>C85*(1+IESS_LowGrowth!B31)</f>
+        <v>14094952402875.982</v>
       </c>
       <c r="G86" s="18">
         <f t="shared" si="0"/>
-        <v>8342065022068.7432</v>
+        <v>14094952402875.982</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -47931,12 +47240,12 @@
         <v>2042</v>
       </c>
       <c r="C87" s="17">
-        <f>C86*(1+OECD_PPP!H29)</f>
-        <v>8675309491659.9717</v>
+        <f>C86*(1+IESS_LowGrowth!B32)</f>
+        <v>15005100040354.359</v>
       </c>
       <c r="G87" s="18">
         <f t="shared" si="0"/>
-        <v>8675309491659.9717</v>
+        <v>15005100040354.359</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -47944,12 +47253,12 @@
         <v>2043</v>
       </c>
       <c r="C88" s="17">
-        <f>C87*(1+OECD_PPP!H30)</f>
-        <v>9015101360426.6895</v>
+        <f>C87*(1+IESS_LowGrowth!B33)</f>
+        <v>15846879329561.463</v>
       </c>
       <c r="G88" s="18">
         <f t="shared" si="0"/>
-        <v>9015101360426.6895</v>
+        <v>15846879329561.463</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -47957,12 +47266,12 @@
         <v>2044</v>
       </c>
       <c r="C89" s="17">
-        <f>C88*(1+OECD_PPP!H31)</f>
-        <v>9361460172844.0469</v>
+        <f>C88*(1+IESS_LowGrowth!B34)</f>
+        <v>16735882054122.701</v>
       </c>
       <c r="G89" s="18">
         <f t="shared" si="0"/>
-        <v>9361460172844.0469</v>
+        <v>16735882054122.701</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -47970,12 +47279,12 @@
         <v>2045</v>
       </c>
       <c r="C90" s="17">
-        <f>C89*(1+OECD_PPP!H32)</f>
-        <v>9714254701721.748</v>
+        <f>C89*(1+IESS_LowGrowth!B35)</f>
+        <v>17674757427288.199</v>
       </c>
       <c r="G90" s="18">
         <f t="shared" si="0"/>
-        <v>9714254701721.748</v>
+        <v>17674757427288.199</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -47983,12 +47292,12 @@
         <v>2046</v>
       </c>
       <c r="C91" s="17">
-        <f>C90*(1+OECD_PPP!H33)</f>
-        <v>10073334175394.344</v>
+        <f>C90*(1+IESS_LowGrowth!B36)</f>
+        <v>18666303281966.77</v>
       </c>
       <c r="G91" s="18">
         <f t="shared" si="0"/>
-        <v>10073334175394.344</v>
+        <v>18666303281966.77</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -47996,12 +47305,12 @@
         <v>2047</v>
       </c>
       <c r="C92" s="17">
-        <f>C91*(1+OECD_PPP!H34)</f>
-        <v>10438801900373.346</v>
+        <f>C91*(1+IESS_LowGrowth!B37)</f>
+        <v>19713474408221.195</v>
       </c>
       <c r="G92" s="18">
         <f t="shared" si="0"/>
-        <v>10438801900373.346</v>
+        <v>19713474408221.195</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -48009,12 +47318,12 @@
         <v>2048</v>
       </c>
       <c r="C93" s="17">
-        <f>C92*(1+OECD_PPP!H35)</f>
-        <v>10810710925948.449</v>
+        <f>C92*(1+IESS_LowGrowth!B38)</f>
+        <v>20819391358493.188</v>
       </c>
       <c r="G93" s="18">
         <f t="shared" si="0"/>
-        <v>10810710925948.449</v>
+        <v>20819391358493.188</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -48022,12 +47331,12 @@
         <v>2049</v>
       </c>
       <c r="C94" s="17">
-        <f>C93*(1+OECD_PPP!H36)</f>
-        <v>11188938401132.99</v>
+        <f>C93*(1+IESS_LowGrowth!B39)</f>
+        <v>21987349746797.477</v>
       </c>
       <c r="G94" s="18">
         <f t="shared" si="0"/>
-        <v>11188938401132.99</v>
+        <v>21987349746797.477</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -48035,12 +47344,12 @@
         <v>2050</v>
       </c>
       <c r="C95" s="17">
-        <f>C94*(1+OECD_PPP!H37)</f>
-        <v>11573227455682.131</v>
+        <f>C94*(1+IESS_LowGrowth!B40)</f>
+        <v>23220830069596.449</v>
       </c>
       <c r="G95" s="18">
         <f t="shared" si="0"/>
-        <v>11573227455682.131</v>
+        <v>23220830069596.449</v>
       </c>
     </row>
   </sheetData>
@@ -48061,8 +47370,8 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48074,10 +47383,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -48136,7 +47445,7 @@
       </c>
       <c r="B7" s="18">
         <f>Calcs!G65</f>
-        <v>2410127450759.4292</v>
+        <v>2418415626504.3853</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -48146,7 +47455,7 @@
       </c>
       <c r="B8" s="18">
         <f>Calcs!G66</f>
-        <v>2802213974036.7944</v>
+        <v>2832458205320.9595</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -48156,7 +47465,7 @@
       </c>
       <c r="B9" s="18">
         <f>Calcs!G67</f>
-        <v>3111674630671.8975</v>
+        <v>3188691783773.1221</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -48166,7 +47475,7 @@
       </c>
       <c r="B10" s="18">
         <f>Calcs!G68</f>
-        <v>3378236325198.5981</v>
+        <v>3520636110077.0586</v>
       </c>
       <c r="C10" s="6"/>
     </row>
@@ -48176,7 +47485,7 @@
       </c>
       <c r="B11" s="18">
         <f>Calcs!G69</f>
-        <v>3624466125621.6172</v>
+        <v>3851078540861.2144</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -48186,7 +47495,7 @@
       </c>
       <c r="B12" s="18">
         <f>Calcs!G70</f>
-        <v>3863028921860.7319</v>
+        <v>4193349108471.8076</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -48196,7 +47505,7 @@
       </c>
       <c r="B13" s="18">
         <f>Calcs!G71</f>
-        <v>4100485797660.9868</v>
+        <v>4555734313000.4092</v>
       </c>
       <c r="C13" s="6"/>
     </row>
@@ -48206,7 +47515,7 @@
       </c>
       <c r="B14" s="18">
         <f>Calcs!G72</f>
-        <v>4340667002237.0645</v>
+        <v>4943876269640.627</v>
       </c>
       <c r="C14" s="6"/>
     </row>
@@ -48216,7 +47525,7 @@
       </c>
       <c r="B15" s="18">
         <f>Calcs!G73</f>
-        <v>4585544574314.1445</v>
+        <v>5362080515430.2412</v>
       </c>
       <c r="C15" s="6"/>
     </row>
@@ -48226,7 +47535,7 @@
       </c>
       <c r="B16" s="18">
         <f>Calcs!G74</f>
-        <v>4836164708541.207</v>
+        <v>5814032947295.9238</v>
       </c>
       <c r="C16" s="6"/>
     </row>
@@ -48236,7 +47545,7 @@
       </c>
       <c r="B17" s="18">
         <f>Calcs!G75</f>
-        <v>5093049984365.6621</v>
+        <v>6303197195874.7578</v>
       </c>
       <c r="C17" s="6"/>
     </row>
@@ -48246,7 +47555,7 @@
       </c>
       <c r="B18" s="18">
         <f>Calcs!G76</f>
-        <v>5356459073181.6104</v>
+        <v>6833039537157.0117</v>
       </c>
       <c r="C18" s="6"/>
     </row>
@@ -48256,7 +47565,7 @@
       </c>
       <c r="B19" s="18">
         <f>Calcs!G77</f>
-        <v>5626516555677.9131</v>
+        <v>7407420018328.4746</v>
       </c>
       <c r="C19" s="6"/>
     </row>
@@ -48266,7 +47575,7 @@
       </c>
       <c r="B20" s="18">
         <f>Calcs!G78</f>
-        <v>5902836345358.7402</v>
+        <v>8013201693706.3408</v>
       </c>
       <c r="C20" s="6"/>
     </row>
@@ -48276,7 +47585,7 @@
       </c>
       <c r="B21" s="18">
         <f>Calcs!G79</f>
-        <v>6185706326282.9365</v>
+        <v>8668524428902.0117</v>
       </c>
       <c r="C21" s="6"/>
     </row>
@@ -48286,7 +47595,7 @@
       </c>
       <c r="B22" s="18">
         <f>Calcs!G80</f>
-        <v>6474956182309.9023</v>
+        <v>9377439710957.1523</v>
       </c>
       <c r="C22" s="6"/>
     </row>
@@ -48296,7 +47605,7 @@
       </c>
       <c r="B23" s="18">
         <f>Calcs!G81</f>
-        <v>6770429557638.4316</v>
+        <v>10144330359091.404</v>
       </c>
       <c r="C23" s="6"/>
     </row>
@@ -48306,7 +47615,7 @@
       </c>
       <c r="B24" s="18">
         <f>Calcs!G82</f>
-        <v>7072154372947.3115</v>
+        <v>10973937621176.111</v>
       </c>
       <c r="C24" s="6"/>
     </row>
@@ -48316,7 +47625,7 @@
       </c>
       <c r="B25" s="18">
         <f>Calcs!G83</f>
-        <v>7380200429933.5098</v>
+        <v>11682553238615.908</v>
       </c>
       <c r="C25" s="6"/>
     </row>
@@ -48326,7 +47635,7 @@
       </c>
       <c r="B26" s="18">
         <f>Calcs!G84</f>
-        <v>7694570520664.9043</v>
+        <v>12436926004548.205</v>
       </c>
       <c r="C26" s="6"/>
     </row>
@@ -48336,7 +47645,7 @@
       </c>
       <c r="B27" s="18">
         <f>Calcs!G85</f>
-        <v>8015208803783.9199</v>
+        <v>13240010576740.395</v>
       </c>
       <c r="C27" s="6"/>
     </row>
@@ -48346,7 +47655,7 @@
       </c>
       <c r="B28" s="18">
         <f>Calcs!G86</f>
-        <v>8342065022068.7432</v>
+        <v>14094952402875.982</v>
       </c>
       <c r="C28" s="6"/>
     </row>
@@ -48356,7 +47665,7 @@
       </c>
       <c r="B29" s="18">
         <f>Calcs!G87</f>
-        <v>8675309491659.9717</v>
+        <v>15005100040354.359</v>
       </c>
       <c r="C29" s="6"/>
     </row>
@@ -48366,7 +47675,7 @@
       </c>
       <c r="B30" s="18">
         <f>Calcs!G88</f>
-        <v>9015101360426.6895</v>
+        <v>15846879329561.463</v>
       </c>
       <c r="C30" s="6"/>
     </row>
@@ -48376,7 +47685,7 @@
       </c>
       <c r="B31" s="18">
         <f>Calcs!G89</f>
-        <v>9361460172844.0469</v>
+        <v>16735882054122.701</v>
       </c>
       <c r="C31" s="6"/>
     </row>
@@ -48386,7 +47695,7 @@
       </c>
       <c r="B32" s="18">
         <f>Calcs!G90</f>
-        <v>9714254701721.748</v>
+        <v>17674757427288.199</v>
       </c>
       <c r="C32" s="6"/>
     </row>
@@ -48396,7 +47705,7 @@
       </c>
       <c r="B33" s="18">
         <f>Calcs!G91</f>
-        <v>10073334175394.344</v>
+        <v>18666303281966.77</v>
       </c>
       <c r="C33" s="6"/>
     </row>
@@ -48406,7 +47715,7 @@
       </c>
       <c r="B34" s="18">
         <f>Calcs!G92</f>
-        <v>10438801900373.346</v>
+        <v>19713474408221.195</v>
       </c>
       <c r="C34" s="6"/>
     </row>
@@ -48416,7 +47725,7 @@
       </c>
       <c r="B35" s="18">
         <f>Calcs!G93</f>
-        <v>10810710925948.449</v>
+        <v>20819391358493.188</v>
       </c>
       <c r="C35" s="6"/>
     </row>
@@ -48426,7 +47735,7 @@
       </c>
       <c r="B36" s="18">
         <f>Calcs!G94</f>
-        <v>11188938401132.99</v>
+        <v>21987349746797.477</v>
       </c>
       <c r="C36" s="6"/>
     </row>
@@ -48436,7 +47745,7 @@
       </c>
       <c r="B37" s="18">
         <f>Calcs!G95</f>
-        <v>11573227455682.131</v>
+        <v>23220830069596.449</v>
       </c>
       <c r="C37" s="6"/>
     </row>

--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\io-model\BGDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42EE14D2-F5CA-4E3D-BCAF-EA1C01DC6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3458D31-06C8-4FD6-8F47-BE25D335AF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1941,7 +1941,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1973,21 +1973,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3079,97 +3077,97 @@
                   <c:v>2611189004073.0547</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2822460696941.9834</c:v>
+                  <c:v>2773562143573.5303</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3050826414080.3457</c:v>
+                  <c:v>2946032229863.4243</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3307045553504.4199</c:v>
+                  <c:v>3134238110220.0601</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3584782878002.6206</c:v>
+                  <c:v>3334467434530.1445</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3885845560489.2153</c:v>
+                  <c:v>3547488314843.2466</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4212192546620.0317</c:v>
+                  <c:v>3774117933685.1636</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4565947301201.4443</c:v>
+                  <c:v>4015225678902.1641</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4949411625087.6543</c:v>
+                  <c:v>4271736478773.2793</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5365080632469.623</c:v>
+                  <c:v>4544634350184.6699</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5815658986009.4492</c:v>
+                  <c:v>4834966173477.4395</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6304078495458.4658</c:v>
+                  <c:v>5143845708449.8252</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6833517194269.2217</c:v>
+                  <c:v>5472457866919.7891</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7407420018328.4746</c:v>
+                  <c:v>5814665194269.3955</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8013201693706.3408</c:v>
+                  <c:v>6178271654831.0908</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8668524428902.0117</c:v>
+                  <c:v>6564615393248.8701</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9377439710957.1523</c:v>
+                  <c:v>6975118231905.9385</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10144330359091.404</c:v>
+                  <c:v>7411290903516.0254</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10973937621176.111</c:v>
+                  <c:v>7798938618498.1699</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11682553238615.908</c:v>
+                  <c:v>8206862254758.6963</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12436926004548.205</c:v>
+                  <c:v>8636122344754.7773</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13240010576740.395</c:v>
+                  <c:v>9087834892114.4004</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>14094952402875.982</c:v>
+                  <c:v>9563174273057.0449</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>15005100040354.359</c:v>
+                  <c:v>10012590818237.223</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>15846879329561.463</c:v>
+                  <c:v>10483127466984.971</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>16735882054122.701</c:v>
+                  <c:v>10975776747900.957</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>17674757427288.199</c:v>
+                  <c:v>11491577832966.172</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>18666303281966.77</c:v>
+                  <c:v>12031618729524.029</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>19713474408221.195</c:v>
+                  <c:v>12597038575273.561</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>20819391358493.188</c:v>
+                  <c:v>13189030041114.652</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>21987349746797.477</c:v>
+                  <c:v>13808841846913.787</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>23220830069596.449</c:v>
+                  <c:v>14457781395496.918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,97 +3576,97 @@
                   <c:v>2611189004073.0547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2418415626504.3853</c:v>
+                  <c:v>2376517071209.0532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2832458205320.9595</c:v>
+                  <c:v>2735164847172.0952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3188691783773.1221</c:v>
+                  <c:v>3022068837200.2329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3520636110077.0586</c:v>
+                  <c:v>3274799857452.9722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3851078540861.2144</c:v>
+                  <c:v>3515748608786.3921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4193349108471.8076</c:v>
+                  <c:v>3757234242576.4639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4555734313000.4092</c:v>
+                  <c:v>4006244530023.7417</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4943876269640.627</c:v>
+                  <c:v>4266959026102.7061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5362080515430.2412</c:v>
+                  <c:v>4542093021193.4092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5814032947295.9238</c:v>
+                  <c:v>4833614333179.4482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6303197195874.7578</c:v>
+                  <c:v>5143126607460.7139</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6833039537157.0117</c:v>
+                  <c:v>5472075346711.3682</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7407420018328.4746</c:v>
+                  <c:v>5814665194269.3955</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8013201693706.3408</c:v>
+                  <c:v>6178271654831.0908</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8668524428902.0117</c:v>
+                  <c:v>6564615393248.8701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9377439710957.1523</c:v>
+                  <c:v>6975118231905.9385</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10144330359091.404</c:v>
+                  <c:v>7411290903516.0254</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10973937621176.111</c:v>
+                  <c:v>7798938618498.1699</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11682553238615.908</c:v>
+                  <c:v>8206862254758.6963</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12436926004548.205</c:v>
+                  <c:v>8636122344754.7773</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13240010576740.395</c:v>
+                  <c:v>9087834892114.4004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14094952402875.982</c:v>
+                  <c:v>9563174273057.0449</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15005100040354.359</c:v>
+                  <c:v>10012590818237.223</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15846879329561.463</c:v>
+                  <c:v>10483127466984.971</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16735882054122.701</c:v>
+                  <c:v>10975776747900.957</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17674757427288.199</c:v>
+                  <c:v>11491577832966.172</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18666303281966.77</c:v>
+                  <c:v>12031618729524.029</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19713474408221.195</c:v>
+                  <c:v>12597038575273.561</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20819391358493.188</c:v>
+                  <c:v>13189030041114.652</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21987349746797.477</c:v>
+                  <c:v>13808841846913.787</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23220830069596.449</c:v>
+                  <c:v>14457781395496.918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5448,7 +5446,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>563</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -5456,7 +5454,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>564</v>
       </c>
       <c r="D7" s="3"/>
@@ -45293,8 +45291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45308,16 +45306,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s">
         <v>580</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" t="s">
         <v>581</v>
       </c>
-      <c r="D1" s="28"/>
       <c r="G1"/>
       <c r="H1"/>
     </row>
@@ -45419,32 +45416,32 @@
         <v>5.5730246037310319E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25">
+    <row r="7" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="24">
         <v>3</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>5.5657638964670221E-2</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>6.2183602660396575E-2</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>6.388452863781495E-2</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>6.388452863781495E-2</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>6.2532656380636584E-2</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <v>5.2305019466748925E-2</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <v>4.6994494960355127E-2</v>
       </c>
     </row>
@@ -45463,309 +45460,309 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
+      <c r="A10">
         <v>2020</v>
       </c>
       <c r="B10" s="21">
-        <f>G$5</f>
-        <v>8.0910149567640269E-2</v>
+        <f>G$7</f>
+        <v>6.2183602660396575E-2</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
+      <c r="A11">
         <v>2021</v>
       </c>
       <c r="B11" s="21">
-        <f t="shared" ref="B11:B12" si="0">G$5</f>
-        <v>8.0910149567640269E-2</v>
+        <f>G$7</f>
+        <v>6.2183602660396575E-2</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="28">
+      <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12" s="21">
-        <f>H$5</f>
-        <v>8.3983519429869077E-2</v>
+        <f>H$7</f>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="28">
+      <c r="A13">
         <v>2023</v>
       </c>
       <c r="B13" s="21">
-        <f>H$5</f>
-        <v>8.3983519429869077E-2</v>
+        <f t="shared" ref="B13:B16" si="0">H$7</f>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="28">
+      <c r="A14">
         <v>2024</v>
       </c>
       <c r="B14" s="21">
-        <f t="shared" ref="B14:B17" si="1">H$5</f>
-        <v>8.3983519429869077E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="28">
+      <c r="A15">
         <v>2025</v>
       </c>
       <c r="B15" s="21">
-        <f t="shared" si="1"/>
-        <v>8.3983519429869077E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="28">
+      <c r="A16">
         <v>2026</v>
       </c>
       <c r="B16" s="21">
-        <f t="shared" si="1"/>
-        <v>8.3983519429869077E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
+      <c r="A17">
         <v>2027</v>
       </c>
       <c r="B17" s="21">
-        <f t="shared" si="1"/>
-        <v>8.3983519429869077E-2</v>
+        <f>I$7</f>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="28">
+      <c r="A18">
         <v>2028</v>
       </c>
       <c r="B18" s="21">
-        <f>I$5</f>
-        <v>8.3983519429869077E-2</v>
+        <f t="shared" ref="B18:B21" si="1">I$7</f>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
+      <c r="A19">
         <v>2029</v>
       </c>
       <c r="B19" s="21">
-        <f t="shared" ref="B19:B22" si="2">I$5</f>
-        <v>8.3983519429869077E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
+      <c r="A20">
         <v>2030</v>
       </c>
       <c r="B20" s="21">
-        <f t="shared" si="2"/>
-        <v>8.3983519429869077E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
+      <c r="A21">
         <v>2031</v>
       </c>
       <c r="B21" s="21">
-        <f t="shared" si="2"/>
-        <v>8.3983519429869077E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.388452863781495E-2</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
+      <c r="A22">
         <v>2032</v>
       </c>
       <c r="B22" s="21">
-        <f t="shared" si="2"/>
-        <v>8.3983519429869077E-2</v>
+        <f>J$7</f>
+        <v>6.2532656380636584E-2</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="28">
+      <c r="A23">
         <v>2033</v>
       </c>
       <c r="B23" s="21">
-        <f>J$5</f>
-        <v>8.1780386947001335E-2</v>
+        <f t="shared" ref="B23:B26" si="2">J$7</f>
+        <v>6.2532656380636584E-2</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="28">
+      <c r="A24">
         <v>2034</v>
       </c>
       <c r="B24" s="21">
-        <f t="shared" ref="B24:B27" si="3">J$5</f>
-        <v>8.1780386947001335E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.2532656380636584E-2</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="28">
+      <c r="A25">
         <v>2035</v>
       </c>
       <c r="B25" s="21">
-        <f t="shared" si="3"/>
-        <v>8.1780386947001335E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.2532656380636584E-2</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="28">
+      <c r="A26">
         <v>2036</v>
       </c>
       <c r="B26" s="21">
-        <f t="shared" si="3"/>
-        <v>8.1780386947001335E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.2532656380636584E-2</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
+      <c r="A27">
         <v>2037</v>
       </c>
       <c r="B27" s="21">
-        <f t="shared" si="3"/>
-        <v>8.1780386947001335E-2</v>
+        <f>K$7</f>
+        <v>5.2305019466748925E-2</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="28">
+      <c r="A28">
         <v>2038</v>
       </c>
       <c r="B28" s="21">
-        <f>K$5</f>
-        <v>6.4572593894866109E-2</v>
+        <f t="shared" ref="B28:B31" si="3">K$7</f>
+        <v>5.2305019466748925E-2</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="28">
+      <c r="A29">
         <v>2039</v>
       </c>
       <c r="B29" s="21">
-        <f t="shared" ref="B29:B32" si="4">K$5</f>
-        <v>6.4572593894866109E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.2305019466748925E-2</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="28">
+      <c r="A30">
         <v>2040</v>
       </c>
       <c r="B30" s="21">
-        <f t="shared" si="4"/>
-        <v>6.4572593894866109E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.2305019466748925E-2</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="28">
+      <c r="A31">
         <v>2041</v>
       </c>
       <c r="B31" s="21">
-        <f t="shared" si="4"/>
-        <v>6.4572593894866109E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.2305019466748925E-2</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="28">
+      <c r="A32">
         <v>2042</v>
       </c>
       <c r="B32" s="21">
-        <f t="shared" si="4"/>
-        <v>6.4572593894866109E-2</v>
+        <f>L$7</f>
+        <v>4.6994494960355127E-2</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="28">
+      <c r="A33">
         <v>2043</v>
       </c>
       <c r="B33" s="21">
-        <f>L$5</f>
-        <v>5.6099545284152841E-2</v>
+        <f t="shared" ref="B33:B36" si="4">L$7</f>
+        <v>4.6994494960355127E-2</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="28">
+      <c r="A34">
         <v>2044</v>
       </c>
       <c r="B34" s="21">
-        <f t="shared" ref="B34:B40" si="5">L$5</f>
-        <v>5.6099545284152841E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.6994494960355127E-2</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="28">
+      <c r="A35">
         <v>2045</v>
       </c>
       <c r="B35" s="21">
-        <f t="shared" si="5"/>
-        <v>5.6099545284152841E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.6994494960355127E-2</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="28">
+      <c r="A36">
         <v>2046</v>
       </c>
       <c r="B36" s="21">
-        <f t="shared" si="5"/>
-        <v>5.6099545284152841E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.6994494960355127E-2</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="28">
+      <c r="A37">
         <v>2047</v>
       </c>
       <c r="B37" s="21">
-        <f t="shared" si="5"/>
-        <v>5.6099545284152841E-2</v>
+        <f>B36</f>
+        <v>4.6994494960355127E-2</v>
       </c>
       <c r="C37" t="s">
         <v>583</v>
@@ -45778,34 +45775,34 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="28">
+      <c r="A38">
         <v>2048</v>
       </c>
       <c r="B38" s="21">
-        <f t="shared" si="5"/>
-        <v>5.6099545284152841E-2</v>
+        <f>B36</f>
+        <v>4.6994494960355127E-2</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="28">
+      <c r="A39">
         <v>2049</v>
       </c>
       <c r="B39" s="21">
-        <f t="shared" si="5"/>
-        <v>5.6099545284152841E-2</v>
+        <f>B36</f>
+        <v>4.6994494960355127E-2</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="28">
+      <c r="A40">
         <v>2050</v>
       </c>
       <c r="B40" s="21">
-        <f t="shared" si="5"/>
-        <v>5.6099545284152841E-2</v>
+        <f>B36</f>
+        <v>4.6994494960355127E-2</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -46000,12 +45997,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -46817,7 +46814,7 @@
       <c r="A64" s="15">
         <v>2019</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="10">
         <f>INDEX('World Bank_Real'!$113:$113,MATCH(Calcs!A64,'World Bank_Real'!$5:$5,0))</f>
         <v>2695611314661.46</v>
       </c>
@@ -46836,7 +46833,7 @@
       </c>
       <c r="C65" s="17">
         <f>C64*(1+IESS_LowGrowth!B10)</f>
-        <v>2822460696941.9834</v>
+        <v>2773562143573.5303</v>
       </c>
       <c r="D65">
         <v>2020</v>
@@ -46849,7 +46846,7 @@
       </c>
       <c r="G65" s="18">
         <f>C65*(1+E65)</f>
-        <v>2418415626504.3853</v>
+        <v>2376517071209.0532</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -46858,7 +46855,7 @@
       </c>
       <c r="C66" s="17">
         <f>C65*(1+IESS_LowGrowth!B11)</f>
-        <v>3050826414080.3457</v>
+        <v>2946032229863.4243</v>
       </c>
       <c r="D66">
         <v>2021</v>
@@ -46872,7 +46869,7 @@
       </c>
       <c r="G66" s="18">
         <f t="shared" ref="G66:G74" si="1">C66*(1+E66)</f>
-        <v>2832458205320.9595</v>
+        <v>2735164847172.0952</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -46881,7 +46878,7 @@
       </c>
       <c r="C67" s="17">
         <f>C66*(1+IESS_LowGrowth!B12)</f>
-        <v>3307045553504.4199</v>
+        <v>3134238110220.0601</v>
       </c>
       <c r="D67">
         <v>2022</v>
@@ -46895,7 +46892,7 @@
       </c>
       <c r="G67" s="18">
         <f t="shared" si="1"/>
-        <v>3188691783773.1221</v>
+        <v>3022068837200.2329</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -46904,7 +46901,7 @@
       </c>
       <c r="C68" s="17">
         <f>C67*(1+IESS_LowGrowth!B13)</f>
-        <v>3584782878002.6206</v>
+        <v>3334467434530.1445</v>
       </c>
       <c r="D68">
         <v>2023</v>
@@ -46918,7 +46915,7 @@
       </c>
       <c r="G68" s="18">
         <f t="shared" si="1"/>
-        <v>3520636110077.0586</v>
+        <v>3274799857452.9722</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -46927,7 +46924,7 @@
       </c>
       <c r="C69" s="17">
         <f>C68*(1+IESS_LowGrowth!B14)</f>
-        <v>3885845560489.2153</v>
+        <v>3547488314843.2466</v>
       </c>
       <c r="D69">
         <v>2024</v>
@@ -46941,7 +46938,7 @@
       </c>
       <c r="G69" s="18">
         <f t="shared" si="1"/>
-        <v>3851078540861.2144</v>
+        <v>3515748608786.3921</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -46950,7 +46947,7 @@
       </c>
       <c r="C70" s="17">
         <f>C69*(1+IESS_LowGrowth!B15)</f>
-        <v>4212192546620.0317</v>
+        <v>3774117933685.1636</v>
       </c>
       <c r="D70">
         <v>2025</v>
@@ -46964,7 +46961,7 @@
       </c>
       <c r="G70" s="18">
         <f t="shared" si="1"/>
-        <v>4193349108471.8076</v>
+        <v>3757234242576.4639</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -46973,7 +46970,7 @@
       </c>
       <c r="C71" s="17">
         <f>C70*(1+IESS_LowGrowth!B16)</f>
-        <v>4565947301201.4443</v>
+        <v>4015225678902.1641</v>
       </c>
       <c r="D71">
         <v>2026</v>
@@ -46987,7 +46984,7 @@
       </c>
       <c r="G71" s="18">
         <f t="shared" si="1"/>
-        <v>4555734313000.4092</v>
+        <v>4006244530023.7417</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -46996,7 +46993,7 @@
       </c>
       <c r="C72" s="17">
         <f>C71*(1+IESS_LowGrowth!B17)</f>
-        <v>4949411625087.6543</v>
+        <v>4271736478773.2793</v>
       </c>
       <c r="D72">
         <v>2027</v>
@@ -47010,7 +47007,7 @@
       </c>
       <c r="G72" s="18">
         <f t="shared" si="1"/>
-        <v>4943876269640.627</v>
+        <v>4266959026102.7061</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -47019,7 +47016,7 @@
       </c>
       <c r="C73" s="17">
         <f>C72*(1+IESS_LowGrowth!B18)</f>
-        <v>5365080632469.623</v>
+        <v>4544634350184.6699</v>
       </c>
       <c r="D73">
         <v>2028</v>
@@ -47033,7 +47030,7 @@
       </c>
       <c r="G73" s="18">
         <f t="shared" si="1"/>
-        <v>5362080515430.2412</v>
+        <v>4542093021193.4092</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -47042,7 +47039,7 @@
       </c>
       <c r="C74" s="17">
         <f>C73*(1+IESS_LowGrowth!B19)</f>
-        <v>5815658986009.4492</v>
+        <v>4834966173477.4395</v>
       </c>
       <c r="D74">
         <v>2029</v>
@@ -47056,7 +47053,7 @@
       </c>
       <c r="G74" s="18">
         <f t="shared" si="1"/>
-        <v>5814032947295.9238</v>
+        <v>4833614333179.4482</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -47065,7 +47062,7 @@
       </c>
       <c r="C75" s="17">
         <f>C74*(1+IESS_LowGrowth!B20)</f>
-        <v>6304078495458.4658</v>
+        <v>5143845708449.8252</v>
       </c>
       <c r="D75">
         <v>2030</v>
@@ -47079,7 +47076,7 @@
       </c>
       <c r="G75" s="18">
         <f>C75*(1+E75)</f>
-        <v>6303197195874.7578</v>
+        <v>5143126607460.7139</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -47088,7 +47085,7 @@
       </c>
       <c r="C76" s="17">
         <f>C75*(1+IESS_LowGrowth!B21)</f>
-        <v>6833517194269.2217</v>
+        <v>5472457866919.7891</v>
       </c>
       <c r="D76">
         <v>2031</v>
@@ -47102,7 +47099,7 @@
       </c>
       <c r="G76" s="18">
         <f>C76*(1+E76)</f>
-        <v>6833039537157.0117</v>
+        <v>5472075346711.3682</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -47111,11 +47108,11 @@
       </c>
       <c r="C77" s="17">
         <f>C76*(1+IESS_LowGrowth!B22)</f>
-        <v>7407420018328.4746</v>
+        <v>5814665194269.3955</v>
       </c>
       <c r="G77" s="18">
         <f t="shared" si="0"/>
-        <v>7407420018328.4746</v>
+        <v>5814665194269.3955</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -47124,11 +47121,11 @@
       </c>
       <c r="C78" s="17">
         <f>C77*(1+IESS_LowGrowth!B23)</f>
-        <v>8013201693706.3408</v>
+        <v>6178271654831.0908</v>
       </c>
       <c r="G78" s="18">
         <f t="shared" si="0"/>
-        <v>8013201693706.3408</v>
+        <v>6178271654831.0908</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -47137,11 +47134,11 @@
       </c>
       <c r="C79" s="17">
         <f>C78*(1+IESS_LowGrowth!B24)</f>
-        <v>8668524428902.0117</v>
+        <v>6564615393248.8701</v>
       </c>
       <c r="G79" s="18">
         <f t="shared" si="0"/>
-        <v>8668524428902.0117</v>
+        <v>6564615393248.8701</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -47150,11 +47147,11 @@
       </c>
       <c r="C80" s="17">
         <f>C79*(1+IESS_LowGrowth!B25)</f>
-        <v>9377439710957.1523</v>
+        <v>6975118231905.9385</v>
       </c>
       <c r="G80" s="18">
         <f t="shared" si="0"/>
-        <v>9377439710957.1523</v>
+        <v>6975118231905.9385</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -47163,11 +47160,11 @@
       </c>
       <c r="C81" s="17">
         <f>C80*(1+IESS_LowGrowth!B26)</f>
-        <v>10144330359091.404</v>
+        <v>7411290903516.0254</v>
       </c>
       <c r="G81" s="18">
         <f t="shared" si="0"/>
-        <v>10144330359091.404</v>
+        <v>7411290903516.0254</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -47176,11 +47173,11 @@
       </c>
       <c r="C82" s="17">
         <f>C81*(1+IESS_LowGrowth!B27)</f>
-        <v>10973937621176.111</v>
+        <v>7798938618498.1699</v>
       </c>
       <c r="G82" s="18">
         <f t="shared" si="0"/>
-        <v>10973937621176.111</v>
+        <v>7798938618498.1699</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -47189,11 +47186,11 @@
       </c>
       <c r="C83" s="17">
         <f>C82*(1+IESS_LowGrowth!B28)</f>
-        <v>11682553238615.908</v>
+        <v>8206862254758.6963</v>
       </c>
       <c r="G83" s="18">
         <f t="shared" si="0"/>
-        <v>11682553238615.908</v>
+        <v>8206862254758.6963</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -47202,11 +47199,11 @@
       </c>
       <c r="C84" s="17">
         <f>C83*(1+IESS_LowGrowth!B29)</f>
-        <v>12436926004548.205</v>
+        <v>8636122344754.7773</v>
       </c>
       <c r="G84" s="18">
         <f t="shared" si="0"/>
-        <v>12436926004548.205</v>
+        <v>8636122344754.7773</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -47215,11 +47212,11 @@
       </c>
       <c r="C85" s="17">
         <f>C84*(1+IESS_LowGrowth!B30)</f>
-        <v>13240010576740.395</v>
+        <v>9087834892114.4004</v>
       </c>
       <c r="G85" s="18">
         <f t="shared" si="0"/>
-        <v>13240010576740.395</v>
+        <v>9087834892114.4004</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -47228,11 +47225,11 @@
       </c>
       <c r="C86" s="17">
         <f>C85*(1+IESS_LowGrowth!B31)</f>
-        <v>14094952402875.982</v>
+        <v>9563174273057.0449</v>
       </c>
       <c r="G86" s="18">
         <f t="shared" si="0"/>
-        <v>14094952402875.982</v>
+        <v>9563174273057.0449</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -47241,11 +47238,11 @@
       </c>
       <c r="C87" s="17">
         <f>C86*(1+IESS_LowGrowth!B32)</f>
-        <v>15005100040354.359</v>
+        <v>10012590818237.223</v>
       </c>
       <c r="G87" s="18">
         <f t="shared" si="0"/>
-        <v>15005100040354.359</v>
+        <v>10012590818237.223</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -47254,11 +47251,11 @@
       </c>
       <c r="C88" s="17">
         <f>C87*(1+IESS_LowGrowth!B33)</f>
-        <v>15846879329561.463</v>
+        <v>10483127466984.971</v>
       </c>
       <c r="G88" s="18">
         <f t="shared" si="0"/>
-        <v>15846879329561.463</v>
+        <v>10483127466984.971</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -47267,11 +47264,11 @@
       </c>
       <c r="C89" s="17">
         <f>C88*(1+IESS_LowGrowth!B34)</f>
-        <v>16735882054122.701</v>
+        <v>10975776747900.957</v>
       </c>
       <c r="G89" s="18">
         <f t="shared" si="0"/>
-        <v>16735882054122.701</v>
+        <v>10975776747900.957</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -47280,11 +47277,11 @@
       </c>
       <c r="C90" s="17">
         <f>C89*(1+IESS_LowGrowth!B35)</f>
-        <v>17674757427288.199</v>
+        <v>11491577832966.172</v>
       </c>
       <c r="G90" s="18">
         <f t="shared" si="0"/>
-        <v>17674757427288.199</v>
+        <v>11491577832966.172</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -47293,11 +47290,11 @@
       </c>
       <c r="C91" s="17">
         <f>C90*(1+IESS_LowGrowth!B36)</f>
-        <v>18666303281966.77</v>
+        <v>12031618729524.029</v>
       </c>
       <c r="G91" s="18">
         <f t="shared" si="0"/>
-        <v>18666303281966.77</v>
+        <v>12031618729524.029</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -47306,11 +47303,11 @@
       </c>
       <c r="C92" s="17">
         <f>C91*(1+IESS_LowGrowth!B37)</f>
-        <v>19713474408221.195</v>
+        <v>12597038575273.561</v>
       </c>
       <c r="G92" s="18">
         <f t="shared" si="0"/>
-        <v>19713474408221.195</v>
+        <v>12597038575273.561</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -47319,11 +47316,11 @@
       </c>
       <c r="C93" s="17">
         <f>C92*(1+IESS_LowGrowth!B38)</f>
-        <v>20819391358493.188</v>
+        <v>13189030041114.652</v>
       </c>
       <c r="G93" s="18">
         <f t="shared" si="0"/>
-        <v>20819391358493.188</v>
+        <v>13189030041114.652</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -47332,11 +47329,11 @@
       </c>
       <c r="C94" s="17">
         <f>C93*(1+IESS_LowGrowth!B39)</f>
-        <v>21987349746797.477</v>
+        <v>13808841846913.787</v>
       </c>
       <c r="G94" s="18">
         <f t="shared" si="0"/>
-        <v>21987349746797.477</v>
+        <v>13808841846913.787</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -47345,11 +47342,11 @@
       </c>
       <c r="C95" s="17">
         <f>C94*(1+IESS_LowGrowth!B40)</f>
-        <v>23220830069596.449</v>
+        <v>14457781395496.918</v>
       </c>
       <c r="G95" s="18">
         <f t="shared" si="0"/>
-        <v>23220830069596.449</v>
+        <v>14457781395496.918</v>
       </c>
     </row>
   </sheetData>
@@ -47370,8 +47367,8 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47445,7 +47442,7 @@
       </c>
       <c r="B7" s="18">
         <f>Calcs!G65</f>
-        <v>2418415626504.3853</v>
+        <v>2376517071209.0532</v>
       </c>
       <c r="C7" s="6"/>
     </row>
@@ -47455,7 +47452,7 @@
       </c>
       <c r="B8" s="18">
         <f>Calcs!G66</f>
-        <v>2832458205320.9595</v>
+        <v>2735164847172.0952</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -47465,7 +47462,7 @@
       </c>
       <c r="B9" s="18">
         <f>Calcs!G67</f>
-        <v>3188691783773.1221</v>
+        <v>3022068837200.2329</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -47475,7 +47472,7 @@
       </c>
       <c r="B10" s="18">
         <f>Calcs!G68</f>
-        <v>3520636110077.0586</v>
+        <v>3274799857452.9722</v>
       </c>
       <c r="C10" s="6"/>
     </row>
@@ -47485,7 +47482,7 @@
       </c>
       <c r="B11" s="18">
         <f>Calcs!G69</f>
-        <v>3851078540861.2144</v>
+        <v>3515748608786.3921</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -47495,7 +47492,7 @@
       </c>
       <c r="B12" s="18">
         <f>Calcs!G70</f>
-        <v>4193349108471.8076</v>
+        <v>3757234242576.4639</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -47505,7 +47502,7 @@
       </c>
       <c r="B13" s="18">
         <f>Calcs!G71</f>
-        <v>4555734313000.4092</v>
+        <v>4006244530023.7417</v>
       </c>
       <c r="C13" s="6"/>
     </row>
@@ -47515,7 +47512,7 @@
       </c>
       <c r="B14" s="18">
         <f>Calcs!G72</f>
-        <v>4943876269640.627</v>
+        <v>4266959026102.7061</v>
       </c>
       <c r="C14" s="6"/>
     </row>
@@ -47525,7 +47522,7 @@
       </c>
       <c r="B15" s="18">
         <f>Calcs!G73</f>
-        <v>5362080515430.2412</v>
+        <v>4542093021193.4092</v>
       </c>
       <c r="C15" s="6"/>
     </row>
@@ -47535,7 +47532,7 @@
       </c>
       <c r="B16" s="18">
         <f>Calcs!G74</f>
-        <v>5814032947295.9238</v>
+        <v>4833614333179.4482</v>
       </c>
       <c r="C16" s="6"/>
     </row>
@@ -47545,7 +47542,7 @@
       </c>
       <c r="B17" s="18">
         <f>Calcs!G75</f>
-        <v>6303197195874.7578</v>
+        <v>5143126607460.7139</v>
       </c>
       <c r="C17" s="6"/>
     </row>
@@ -47555,7 +47552,7 @@
       </c>
       <c r="B18" s="18">
         <f>Calcs!G76</f>
-        <v>6833039537157.0117</v>
+        <v>5472075346711.3682</v>
       </c>
       <c r="C18" s="6"/>
     </row>
@@ -47565,7 +47562,7 @@
       </c>
       <c r="B19" s="18">
         <f>Calcs!G77</f>
-        <v>7407420018328.4746</v>
+        <v>5814665194269.3955</v>
       </c>
       <c r="C19" s="6"/>
     </row>
@@ -47575,7 +47572,7 @@
       </c>
       <c r="B20" s="18">
         <f>Calcs!G78</f>
-        <v>8013201693706.3408</v>
+        <v>6178271654831.0908</v>
       </c>
       <c r="C20" s="6"/>
     </row>
@@ -47585,7 +47582,7 @@
       </c>
       <c r="B21" s="18">
         <f>Calcs!G79</f>
-        <v>8668524428902.0117</v>
+        <v>6564615393248.8701</v>
       </c>
       <c r="C21" s="6"/>
     </row>
@@ -47595,7 +47592,7 @@
       </c>
       <c r="B22" s="18">
         <f>Calcs!G80</f>
-        <v>9377439710957.1523</v>
+        <v>6975118231905.9385</v>
       </c>
       <c r="C22" s="6"/>
     </row>
@@ -47605,7 +47602,7 @@
       </c>
       <c r="B23" s="18">
         <f>Calcs!G81</f>
-        <v>10144330359091.404</v>
+        <v>7411290903516.0254</v>
       </c>
       <c r="C23" s="6"/>
     </row>
@@ -47615,7 +47612,7 @@
       </c>
       <c r="B24" s="18">
         <f>Calcs!G82</f>
-        <v>10973937621176.111</v>
+        <v>7798938618498.1699</v>
       </c>
       <c r="C24" s="6"/>
     </row>
@@ -47625,7 +47622,7 @@
       </c>
       <c r="B25" s="18">
         <f>Calcs!G83</f>
-        <v>11682553238615.908</v>
+        <v>8206862254758.6963</v>
       </c>
       <c r="C25" s="6"/>
     </row>
@@ -47635,7 +47632,7 @@
       </c>
       <c r="B26" s="18">
         <f>Calcs!G84</f>
-        <v>12436926004548.205</v>
+        <v>8636122344754.7773</v>
       </c>
       <c r="C26" s="6"/>
     </row>
@@ -47645,7 +47642,7 @@
       </c>
       <c r="B27" s="18">
         <f>Calcs!G85</f>
-        <v>13240010576740.395</v>
+        <v>9087834892114.4004</v>
       </c>
       <c r="C27" s="6"/>
     </row>
@@ -47655,7 +47652,7 @@
       </c>
       <c r="B28" s="18">
         <f>Calcs!G86</f>
-        <v>14094952402875.982</v>
+        <v>9563174273057.0449</v>
       </c>
       <c r="C28" s="6"/>
     </row>
@@ -47665,7 +47662,7 @@
       </c>
       <c r="B29" s="18">
         <f>Calcs!G87</f>
-        <v>15005100040354.359</v>
+        <v>10012590818237.223</v>
       </c>
       <c r="C29" s="6"/>
     </row>
@@ -47675,7 +47672,7 @@
       </c>
       <c r="B30" s="18">
         <f>Calcs!G88</f>
-        <v>15846879329561.463</v>
+        <v>10483127466984.971</v>
       </c>
       <c r="C30" s="6"/>
     </row>
@@ -47685,7 +47682,7 @@
       </c>
       <c r="B31" s="18">
         <f>Calcs!G89</f>
-        <v>16735882054122.701</v>
+        <v>10975776747900.957</v>
       </c>
       <c r="C31" s="6"/>
     </row>
@@ -47695,7 +47692,7 @@
       </c>
       <c r="B32" s="18">
         <f>Calcs!G90</f>
-        <v>17674757427288.199</v>
+        <v>11491577832966.172</v>
       </c>
       <c r="C32" s="6"/>
     </row>
@@ -47705,7 +47702,7 @@
       </c>
       <c r="B33" s="18">
         <f>Calcs!G91</f>
-        <v>18666303281966.77</v>
+        <v>12031618729524.029</v>
       </c>
       <c r="C33" s="6"/>
     </row>
@@ -47715,7 +47712,7 @@
       </c>
       <c r="B34" s="18">
         <f>Calcs!G92</f>
-        <v>19713474408221.195</v>
+        <v>12597038575273.561</v>
       </c>
       <c r="C34" s="6"/>
     </row>
@@ -47725,7 +47722,7 @@
       </c>
       <c r="B35" s="18">
         <f>Calcs!G93</f>
-        <v>20819391358493.188</v>
+        <v>13189030041114.652</v>
       </c>
       <c r="C35" s="6"/>
     </row>
@@ -47735,7 +47732,7 @@
       </c>
       <c r="B36" s="18">
         <f>Calcs!G94</f>
-        <v>21987349746797.477</v>
+        <v>13808841846913.787</v>
       </c>
       <c r="C36" s="6"/>
     </row>
@@ -47745,7 +47742,7 @@
       </c>
       <c r="B37" s="18">
         <f>Calcs!G95</f>
-        <v>23220830069596.449</v>
+        <v>14457781395496.918</v>
       </c>
       <c r="C37" s="6"/>
     </row>
